--- a/cargos/simulator.xlsx
+++ b/cargos/simulator.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="26115" windowHeight="6735"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="26115" windowHeight="6735" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="calcs" sheetId="1" r:id="rId1"/>
+    <sheet name="v9" sheetId="4" r:id="rId2"/>
+    <sheet name="nais12" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>div</t>
   </si>
@@ -64,6 +66,9 @@
   </si>
   <si>
     <t>cargo</t>
+  </si>
+  <si>
+    <t>DIAM/VALU</t>
   </si>
 </sst>
 </file>
@@ -204,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,12 +238,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF28CB0D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,7 +283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$22</c:f>
+              <c:f>calcs!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -286,7 +297,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -328,42 +339,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$22:$O$22</c:f>
+              <c:f>calcs!$E$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1340.0331081865475</c:v>
+                  <c:v>1397.3569016284439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1650.7809854099989</c:v>
+                  <c:v>1699.0510557964276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1880.9778823469514</c:v>
+                  <c:v>1914.4405882288765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2078.1955293001165</c:v>
+                  <c:v>2094.4952099644111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2257.3423903347621</c:v>
+                  <c:v>2255.1882753586738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2425.0590929037362</c:v>
+                  <c:v>2403.6347423968605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2584.8879499220347</c:v>
+                  <c:v>2543.6299463450378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2738.9434065235682</c:v>
+                  <c:v>2677.4393641323945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2888.5893231740224</c:v>
+                  <c:v>2806.5242748293099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3034.7569342248803</c:v>
+                  <c:v>2931.8824295266577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3178.1104512367574</c:v>
+                  <c:v>3054.2254834679552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$23</c:f>
+              <c:f>calcs!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -389,7 +400,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -431,42 +442,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$23:$O$23</c:f>
+              <c:f>calcs!$E$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1359.7926480779847</c:v>
+                  <c:v>1491.1069016284439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1756.677581690237</c:v>
+                  <c:v>1886.5510557964276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2078.7651764650263</c:v>
+                  <c:v>2195.6905882288765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2370.2291819691563</c:v>
+                  <c:v>2469.4952099644111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2644.9131719775173</c:v>
+                  <c:v>2723.9382753586738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2908.9834434106119</c:v>
+                  <c:v>2966.1347423968605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3165.7292868323661</c:v>
+                  <c:v>3199.8799463450378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3417.1141155814084</c:v>
+                  <c:v>3427.4393641323941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3664.4043715187349</c:v>
+                  <c:v>3650.2742748293094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3908.4647722564368</c:v>
+                  <c:v>3869.3824295266572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4149.9120856722275</c:v>
+                  <c:v>4085.4754834679552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,7 +489,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$24</c:f>
+              <c:f>calcs!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -492,7 +503,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -534,42 +545,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$24:$O$24</c:f>
+              <c:f>calcs!$E$24:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1678.6069016284437</c:v>
+                  <c:v>1613.5830518998512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2261.5510557964276</c:v>
+                  <c:v>1965.5595650958321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2758.1905882288765</c:v>
+                  <c:v>2216.8473529336893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3219.4952099644106</c:v>
+                  <c:v>2426.9110782918128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3661.4382753586738</c:v>
+                  <c:v>2614.3863212517863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4091.13474239686</c:v>
+                  <c:v>2787.5738661296705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4512.3799463450378</c:v>
+                  <c:v>2950.9016040692104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4927.4393641323941</c:v>
+                  <c:v>3107.0125914877935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5337.7742748293094</c:v>
+                  <c:v>3257.6116539675281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5744.3824295266568</c:v>
+                  <c:v>3403.862834447767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6147.9754834679552</c:v>
+                  <c:v>3546.5963973792809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +592,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$25</c:f>
+              <c:f>calcs!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -595,7 +606,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -637,42 +648,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$25:$O$25</c:f>
+              <c:f>calcs!$E$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1311.3390846903699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1692.9592131636896</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2002.6588235240638</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2282.9126749703428</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2547.0318961322282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2800.94561866405</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3047.8166219541981</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3289.532803443662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3527.3118956910912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3761.9853579388814</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3994.146236223296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +695,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$26</c:f>
+              <c:f>calcs!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -698,7 +709,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -740,42 +751,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$26:$O$26</c:f>
+              <c:f>calcs!$E$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1397.3569016284439</c:v>
+                  <c:v>1472.893798349392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1699.0510557964276</c:v>
+                  <c:v>1816.9360909896418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1914.4405882288765</c:v>
+                  <c:v>2071.7969411698391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2094.4952099644111</c:v>
+                  <c:v>2290.1450502965581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2255.1882753586738</c:v>
+                  <c:v>2488.4862178706298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2403.6347423968605</c:v>
+                  <c:v>2674.1725671434224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2543.6299463450378</c:v>
+                  <c:v>2851.1259445565388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2677.4393641323945</c:v>
+                  <c:v>3021.6873429368079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2806.5242748293099</c:v>
+                  <c:v>3187.3667506569536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2931.8824295266577</c:v>
+                  <c:v>3349.1951771775462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3054.2254834679552</c:v>
+                  <c:v>3507.9079995835532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +798,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$27</c:f>
+              <c:f>calcs!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,7 +812,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -843,42 +854,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$27:$O$27</c:f>
+              <c:f>calcs!$E$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2467.9103524426655</c:v>
+                  <c:v>1517.8926159141581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3342.3265836946412</c:v>
+                  <c:v>1940.122484367856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4087.2858823433148</c:v>
+                  <c:v>2276.0477310860197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4779.2428149466159</c:v>
+                  <c:v>2576.6380671072679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5442.1574130380104</c:v>
+                  <c:v>2857.8668467872449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6086.70211359529</c:v>
+                  <c:v>3126.8490281111463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6718.5699195175557</c:v>
+                  <c:v>3387.3799463450373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7341.1590461985907</c:v>
+                  <c:v>3641.7250784181088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7956.6614122439642</c:v>
+                  <c:v>3891.3457034007388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8566.5736442899852</c:v>
+                  <c:v>4137.2395723838008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9171.9632252019328</c:v>
+                  <c:v>4380.1183406108121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,7 +901,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$28</c:f>
+              <c:f>calcs!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -904,7 +915,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -946,42 +957,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$28:$O$28</c:f>
+              <c:f>calcs!$E$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1410.749758771301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1725.8367700821418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1954.6191596574481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2148.0666385358395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2322.1525610729595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2483.9918852540031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2637.3799463450378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2784.5822212752514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2927.0599891150241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3065.8110009552292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3201.5469120393836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +1004,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$29</c:f>
+              <c:f>calcs!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1007,7 +1018,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1049,42 +1060,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$29:$O$29</c:f>
+              <c:f>calcs!$E$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1629.2080518998512</c:v>
+                  <c:v>1754.8092021712584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1996.8095650958321</c:v>
+                  <c:v>2082.0680743952366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2263.7223529336898</c:v>
+                  <c:v>2294.2541176385021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2489.4110782918128</c:v>
+                  <c:v>2459.3269466192146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2692.5113212517858</c:v>
+                  <c:v>2598.5843671448984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2881.3238661296705</c:v>
+                  <c:v>2721.5129898624805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3060.2766040692104</c:v>
+                  <c:v>2833.1732617933835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3232.0125914877935</c:v>
+                  <c:v>2936.5858188431926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3398.2366539675281</c:v>
+                  <c:v>3033.6990331057464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3560.1128344477675</c:v>
+                  <c:v>3125.8432393688768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3718.4713973792809</c:v>
+                  <c:v>3213.9673112906066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1107,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$30</c:f>
+              <c:f>calcs!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1110,7 +1121,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1152,42 +1163,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$30:$O$30</c:f>
+              <c:f>calcs!$E$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1410.749758771301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1725.8367700821418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1954.6191596574481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2148.0666385358395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2322.1525610729595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2483.9918852540031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2637.3799463450378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2784.5822212752514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2927.0599891150241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3065.8110009552292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3201.5469120393836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,7 +1210,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$31</c:f>
+              <c:f>calcs!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1213,7 +1224,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1255,42 +1266,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$31:$O$31</c:f>
+              <c:f>calcs!$E$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1410.749758771301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1725.8367700821418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1954.6191596574481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2148.0666385358395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2322.1525610729595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2483.9918852540031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2637.3799463450378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2784.5822212752514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2927.0599891150241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3065.8110009552292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3201.5469120393836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,7 +1313,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$32</c:f>
+              <c:f>calcs!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1316,7 +1327,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1358,42 +1369,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$32:$O$32</c:f>
+              <c:f>calcs!$E$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1847.6663450284013</c:v>
+                  <c:v>1804.8092021712584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2267.7823601095224</c:v>
+                  <c:v>2182.0680743952366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2572.825546209931</c:v>
+                  <c:v>2444.2541176385021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2830.7555180477862</c:v>
+                  <c:v>2659.3269466192146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3062.8700814306126</c:v>
+                  <c:v>2848.5843671448984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3278.6558470053378</c:v>
+                  <c:v>3021.5129898624805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3483.1732617933835</c:v>
+                  <c:v>3183.1732617933835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3679.4429617003352</c:v>
+                  <c:v>3336.5858188431926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3869.4133188200321</c:v>
+                  <c:v>3483.6990331057464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4054.4146679403057</c:v>
+                  <c:v>3625.8432393688768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4235.3958827191782</c:v>
+                  <c:v>3763.9673112906066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,7 +1416,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$33</c:f>
+              <c:f>calcs!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,7 +1430,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$E$21:$O$21</c:f>
+              <c:f>calcs!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1461,42 +1472,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$33:$O$33</c:f>
+              <c:f>calcs!$E$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1410.749758771301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1725.8367700821418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1954.6191596574481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2148.0666385358395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2322.1525610729595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2483.9918852540031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2637.3799463450378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2784.5822212752514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2927.0599891150241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3065.8110009552292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3201.5469120393836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,11 +1524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243743232"/>
-        <c:axId val="231501184"/>
+        <c:axId val="209143296"/>
+        <c:axId val="179489600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243743232"/>
+        <c:axId val="209143296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231501184"/>
+        <c:crossAx val="179489600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1535,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231501184"/>
+        <c:axId val="179489600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1557,3511 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243743232"/>
+        <c:crossAx val="209143296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>948.22372445737096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1171.77532473629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1320.5295861777461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1438.6602583485426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1540.0109150235705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1630.7478531233319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1714.1603632117524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1792.2118586274617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1866.1687812314549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1936.8958486358229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0098287182809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2070.9661200689179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2258.9834434106124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2436.3870481770405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2606.4662249321277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2771.1843870145035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="28CB0D"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>991.55705779070422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1258.4419914029568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1450.5295861777461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1611.9935916818758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1756.677581690237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1890.7478531233319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017.4936965450856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2138.8785252941284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2256.1687812314549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2370.2291819691563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2481.6764953849474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2590.9661200689175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2908.9834434106119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3216.38704817704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3516.4662249321277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3811.1843870145035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1178.7196820661973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536.663836234181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1808.3033686666299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2044.6079904021644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2261.5510557964276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2466.2475228346138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2662.4927267827916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2852.5521445701479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3037.8870552670633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3219.4952099644106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3398.088263905709</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3574.1916770025969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4091.13474239686</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4595.8312094350458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5092.0764133832245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5582.1358311705808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WATR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>957.26640172183102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1213.8865301951507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1398.5861405555252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1553.8399920018037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1692.9592131636896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1821.8729356955114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1943.7439389856593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060.4601204751234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2173.2392127225526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2282.9126749703428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2390.0735532547569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2495.1597308354976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2800.94561866405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3096.5260078625388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3385.0636778193534</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3668.4465259754843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1066.2196820661973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1311.663836234181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470.8033686666301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1594.6079904021644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1699.0510557964276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1791.2475228346138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1874.9927267827914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1952.5521445701481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025.3870552670633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2094.4952099644111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2160.5882639057086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2224.1916770025973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2403.6347423968605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2570.8312094350467</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2729.5764133832245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2882.1358311705808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIAM/VALU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1718.0795230992958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2254.9957543512714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2662.4550529999451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3016.9119856032466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3342.3265836946412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3649.3712842519208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3943.7390901741869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4228.8282168552223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4506.8305829005949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4779.2428149466159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5047.1323958585635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5311.2875155038955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6086.70211359529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6843.7468141525696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7588.1146200748362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8323.2037467558712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1233.5062957438968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1526.1078089398775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1718.0205967777351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1868.7093221358584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996.8095650958321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2110.6221099737159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2214.5748479132567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2311.3108353318394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2402.5348978115735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2489.4110782918128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2572.7696412233267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2653.223623169697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2881.3238661296705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3095.1364110075547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3299.0891489470951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3495.8251363656782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v9'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VEHI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v9'!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v9'!$E$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1395.4357665644534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1729.8374959312887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1949.1663963174115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2121.3820824409813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2267.7823601095224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2397.853839969961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2516.6569690437218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2627.2123832363877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2731.4684546417984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2830.7555180477862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2926.0224471123734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3017.969855051082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3278.6558470053378</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3523.0130411514911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3756.1018845109656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3980.9430129893462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="183457792"/>
+        <c:axId val="34720576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="183457792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34720576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34720576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="183457792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>948.22372445737096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1171.77532473629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1320.5295861777461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1438.6602583485426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1540.0109150235705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1630.7478531233319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1714.1603632117524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1792.2118586274617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1866.1687812314549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1936.8958486358229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0098287182809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2070.9661200689179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2258.9834434106124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2436.3870481770405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2606.4662249321277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2771.1843870145035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="28CB0D"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>991.55705779070422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1258.4419914029568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1450.5295861777461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1611.9935916818758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1756.677581690237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1890.7478531233319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017.4936965450856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2138.8785252941284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2256.1687812314549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2370.2291819691563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2481.6764953849474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2590.9661200689175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2908.9834434106119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3216.38704817704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3516.4662249321277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3811.1843870145035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1178.7196820661973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536.663836234181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1808.3033686666299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2044.6079904021644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2261.5510557964276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2466.2475228346138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2662.4927267827916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2852.5521445701479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3037.8870552670633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3219.4952099644106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3398.088263905709</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3574.1916770025969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4091.13474239686</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4595.8312094350458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5092.0764133832245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5582.1358311705808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WATR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1066.2196820661973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1311.663836234181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470.8033686666301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1594.6079904021644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1699.0510557964276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1791.2475228346138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1874.9927267827914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1952.5521445701481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025.3870552670633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2094.4952099644111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2160.5882639057086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2224.1916770025973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2403.6347423968605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2570.8312094350467</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2729.5764133832245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2882.1358311705808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIAM/VALU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1718.0795230992958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2254.9957543512714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2662.4550529999451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3016.9119856032466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3342.3265836946412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3649.3712842519208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3943.7390901741869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4228.8282168552223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4506.8305829005949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4779.2428149466159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5047.1323958585635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5311.2875155038955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6086.70211359529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6843.7468141525696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7588.1146200748362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8323.2037467558712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1233.5062957438968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1526.1078089398775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1718.0205967777351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1868.7093221358584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996.8095650958321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2110.6221099737159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2214.5748479132567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2311.3108353318394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2402.5348978115735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2489.4110782918128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2572.7696412233267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2653.223623169697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2881.3238661296705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3095.1364110075547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3299.0891489470951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3495.8251363656782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VEHI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1395.4357665644534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1729.8374959312887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1949.1663963174115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2121.3820824409813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2267.7823601095224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2397.853839969961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2516.6569690437218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2627.2123832363877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2731.4684546417984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2830.7555180477862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2926.0224471123734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3017.969855051082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3278.6558470053378</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3523.0130411514911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3756.1018845109656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3980.9430129893462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="181478912"/>
+        <c:axId val="146980160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181478912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146980160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146980160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181478912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1066.2196820661973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1311.663836234181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470.8033686666301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1594.6079904021644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1699.0510557964276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1791.2475228346138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1874.9927267827914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1952.5521445701481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025.3870552670633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2094.4952099644111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2160.5882639057086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2224.1916770025973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2403.6347423968605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2570.8312094350467</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2729.5764133832245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2882.1358311705808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="28CB0D"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1103.7196820661973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1386.663836234181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1583.3033686666301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1744.6079904021644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1886.5510557964276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016.2475228346138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2137.4927267827916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2252.5521445701479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2362.8870552670633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2469.4952099644111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2573.0882639057086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2674.1916770025973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2966.1347423968605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3245.8312094350463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3517.0764133832245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3782.1358311705808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1241.8396290772303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1542.7744756065442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1743.0205967777351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1902.0426554691917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2038.4762317624989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160.6221099737159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2272.9081812465897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2377.9775019985059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2477.5348978115735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2572.7444116251459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2664.4363078899937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2753.2236231696966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3006.3238661296705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3245.1364110075542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3474.0891489470951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3695.8251363656777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WATR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$16:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1111.343671468404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1377.8859641086535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1555.2468142888511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1696.0949234155698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1816.9360909896418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1925.1224402624343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024.575817675551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2117.6372160558194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2205.8166237759651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2290.1450502965581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2371.3578727025656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2449.9980662360172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2674.1725671434224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2885.6922497495484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3088.4789604959983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3284.8736922096004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIAM/VALU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1452.5786237073105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1844.1232102170031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2120.594967745983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2349.9535110124098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2553.4966458238082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2740.7109828271041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2916.6569690437218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3084.3552403792451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3245.7541689275131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3402.1840894763573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3554.5938756838023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3703.6841407653674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4135.7987041481947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4551.5844697229195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4956.1018845109656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5352.3715844179169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$19:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1253.5062957438968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1566.1078089398777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1778.0205967777351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1948.7093221358584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2096.8095650958321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2230.6221099737159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2354.5748479132567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2471.3108353318394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2582.5348978115735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2689.4110782918128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2792.7696412233267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2893.2236231696966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3181.3238661296705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3455.1364110075542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3719.0891489470951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3975.8251363656777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VEHI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$20:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1452.7075548926762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1796.3293707278533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019.1247161332822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2192.4511865630302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2338.6714781149985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2467.7465319684593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2584.989817495908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2693.5730023982073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2795.5418773738884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2892.2932939501757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2984.8235694679925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3073.8683478036364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3325.0886393556048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3559.1636932090655</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3781.4069787365142</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3994.9901636388136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="181479424"/>
+        <c:axId val="147822208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181479424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147822208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147822208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181479424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,6 +5110,112 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1892,8 +5513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,54 +6369,54 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12">
         <f>(LN(E$21/5)*100+E$21/$D22)*$C22+(100+($C22*10))</f>
-        <v>1340.0331081865475</v>
+        <v>1397.3569016284439</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" ref="F22:O33" si="2">(LN(F$21/5)*100+F$21/$D22)*$C22+(100+($C22*10))</f>
-        <v>1650.7809854099989</v>
+        <v>1699.0510557964276</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>1880.9778823469514</v>
+        <v>1914.4405882288765</v>
       </c>
       <c r="H22" s="12">
         <f t="shared" si="2"/>
-        <v>2078.1955293001165</v>
+        <v>2094.4952099644111</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="2"/>
-        <v>2257.3423903347621</v>
+        <v>2255.1882753586738</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="2"/>
-        <v>2425.0590929037362</v>
+        <v>2403.6347423968605</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="2"/>
-        <v>2584.8879499220347</v>
+        <v>2543.6299463450378</v>
       </c>
       <c r="L22" s="12">
         <f t="shared" si="2"/>
-        <v>2738.9434065235682</v>
+        <v>2677.4393641323945</v>
       </c>
       <c r="M22" s="12">
         <f t="shared" si="2"/>
-        <v>2888.5893231740224</v>
+        <v>2806.5242748293099</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" si="2"/>
-        <v>3034.7569342248803</v>
+        <v>2931.8824295266577</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="2"/>
-        <v>3178.1104512367574</v>
+        <v>3054.2254834679552</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2803,54 +6424,54 @@
         <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="12">
         <f t="shared" ref="E23:E33" si="3">(LN(E$21/5)*100+E$21/$D23)*$C23+(100+($C23*10))</f>
-        <v>1359.7926480779847</v>
+        <v>1491.1069016284439</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="2"/>
-        <v>1756.677581690237</v>
+        <v>1886.5510557964276</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>2078.7651764650263</v>
+        <v>2195.6905882288765</v>
       </c>
       <c r="H23" s="12">
         <f t="shared" si="2"/>
-        <v>2370.2291819691563</v>
+        <v>2469.4952099644111</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" si="2"/>
-        <v>2644.9131719775173</v>
+        <v>2723.9382753586738</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="2"/>
-        <v>2908.9834434106119</v>
+        <v>2966.1347423968605</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="2"/>
-        <v>3165.7292868323661</v>
+        <v>3199.8799463450378</v>
       </c>
       <c r="L23" s="12">
         <f t="shared" si="2"/>
-        <v>3417.1141155814084</v>
+        <v>3427.4393641323941</v>
       </c>
       <c r="M23" s="12">
         <f t="shared" si="2"/>
-        <v>3664.4043715187349</v>
+        <v>3650.2742748293094</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" si="2"/>
-        <v>3908.4647722564368</v>
+        <v>3869.3824295266572</v>
       </c>
       <c r="O23" s="12">
         <f t="shared" si="2"/>
-        <v>4149.9120856722275</v>
+        <v>4085.4754834679552</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2858,109 +6479,105 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" si="3"/>
-        <v>1678.6069016284437</v>
+        <v>1613.5830518998512</v>
       </c>
       <c r="F24" s="12">
         <f t="shared" si="2"/>
-        <v>2261.5510557964276</v>
+        <v>1965.5595650958321</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>2758.1905882288765</v>
+        <v>2216.8473529336893</v>
       </c>
       <c r="H24" s="12">
         <f t="shared" si="2"/>
-        <v>3219.4952099644106</v>
+        <v>2426.9110782918128</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" si="2"/>
-        <v>3661.4382753586738</v>
+        <v>2614.3863212517863</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="2"/>
-        <v>4091.13474239686</v>
+        <v>2787.5738661296705</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="2"/>
-        <v>4512.3799463450378</v>
+        <v>2950.9016040692104</v>
       </c>
       <c r="L24" s="12">
         <f t="shared" si="2"/>
-        <v>4927.4393641323941</v>
+        <v>3107.0125914877935</v>
       </c>
       <c r="M24" s="12">
         <f t="shared" si="2"/>
-        <v>5337.7742748293094</v>
+        <v>3257.6116539675281</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" si="2"/>
-        <v>5744.3824295266568</v>
+        <v>3403.862834447767</v>
       </c>
       <c r="O24" s="12">
         <f t="shared" si="2"/>
-        <v>6147.9754834679552</v>
+        <v>3546.5963973792809</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>1311.3390846903699</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" si="2"/>
-        <v>1692.9592131636896</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" si="2"/>
-        <v>2002.6588235240638</v>
-      </c>
-      <c r="H25" s="12">
-        <f t="shared" si="2"/>
-        <v>2282.9126749703428</v>
-      </c>
-      <c r="I25" s="12">
-        <f t="shared" si="2"/>
-        <v>2547.0318961322282</v>
-      </c>
-      <c r="J25" s="12">
-        <f t="shared" si="2"/>
-        <v>2800.94561866405</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" si="2"/>
-        <v>3047.8166219541981</v>
-      </c>
-      <c r="L25" s="12">
-        <f t="shared" si="2"/>
-        <v>3289.532803443662</v>
-      </c>
-      <c r="M25" s="12">
-        <f t="shared" si="2"/>
-        <v>3527.3118956910912</v>
-      </c>
-      <c r="N25" s="12">
-        <f t="shared" si="2"/>
-        <v>3761.9853579388814</v>
-      </c>
-      <c r="O25" s="12">
-        <f t="shared" si="2"/>
-        <v>3994.146236223296</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2968,54 +6585,54 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="12">
         <f t="shared" si="3"/>
-        <v>1397.3569016284439</v>
+        <v>1472.893798349392</v>
       </c>
       <c r="F26" s="12">
         <f t="shared" si="2"/>
-        <v>1699.0510557964276</v>
+        <v>1816.9360909896418</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="2"/>
-        <v>1914.4405882288765</v>
+        <v>2071.7969411698391</v>
       </c>
       <c r="H26" s="12">
         <f t="shared" si="2"/>
-        <v>2094.4952099644111</v>
+        <v>2290.1450502965581</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="2"/>
-        <v>2255.1882753586738</v>
+        <v>2488.4862178706298</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="2"/>
-        <v>2403.6347423968605</v>
+        <v>2674.1725671434224</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="2"/>
-        <v>2543.6299463450378</v>
+        <v>2851.1259445565388</v>
       </c>
       <c r="L26" s="12">
         <f t="shared" si="2"/>
-        <v>2677.4393641323945</v>
+        <v>3021.6873429368079</v>
       </c>
       <c r="M26" s="12">
         <f t="shared" si="2"/>
-        <v>2806.5242748293099</v>
+        <v>3187.3667506569536</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" si="2"/>
-        <v>2931.8824295266577</v>
+        <v>3349.1951771775462</v>
       </c>
       <c r="O26" s="12">
         <f t="shared" si="2"/>
-        <v>3054.2254834679552</v>
+        <v>3507.9079995835532</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -3023,109 +6640,105 @@
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="3"/>
-        <v>2467.9103524426655</v>
+        <v>1517.8926159141581</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="2"/>
-        <v>3342.3265836946412</v>
+        <v>1940.122484367856</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="2"/>
-        <v>4087.2858823433148</v>
+        <v>2276.0477310860197</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" si="2"/>
-        <v>4779.2428149466159</v>
+        <v>2576.6380671072679</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="2"/>
-        <v>5442.1574130380104</v>
+        <v>2857.8668467872449</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="2"/>
-        <v>6086.70211359529</v>
+        <v>3126.8490281111463</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="2"/>
-        <v>6718.5699195175557</v>
+        <v>3387.3799463450373</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="2"/>
-        <v>7341.1590461985907</v>
+        <v>3641.7250784181088</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="2"/>
-        <v>7956.6614122439642</v>
+        <v>3891.3457034007388</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" si="2"/>
-        <v>8566.5736442899852</v>
+        <v>4137.2395723838008</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="2"/>
-        <v>9171.9632252019328</v>
+        <v>4380.1183406108121</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>1410.749758771301</v>
-      </c>
-      <c r="F28" s="12">
-        <f t="shared" si="2"/>
-        <v>1725.8367700821418</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="2"/>
-        <v>1954.6191596574481</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="2"/>
-        <v>2148.0666385358395</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="2"/>
-        <v>2322.1525610729595</v>
-      </c>
-      <c r="J28" s="12">
-        <f t="shared" si="2"/>
-        <v>2483.9918852540031</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="2"/>
-        <v>2637.3799463450378</v>
-      </c>
-      <c r="L28" s="12">
-        <f t="shared" si="2"/>
-        <v>2784.5822212752514</v>
-      </c>
-      <c r="M28" s="12">
-        <f t="shared" si="2"/>
-        <v>2927.0599891150241</v>
-      </c>
-      <c r="N28" s="12">
-        <f t="shared" si="2"/>
-        <v>3065.8110009552292</v>
-      </c>
-      <c r="O28" s="12">
-        <f t="shared" si="2"/>
-        <v>3201.5469120393836</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -3133,164 +6746,156 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E29" s="12">
         <f t="shared" si="3"/>
-        <v>1629.2080518998512</v>
+        <v>1754.8092021712584</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="2"/>
-        <v>1996.8095650958321</v>
+        <v>2082.0680743952366</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="2"/>
-        <v>2263.7223529336898</v>
+        <v>2294.2541176385021</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" si="2"/>
-        <v>2489.4110782918128</v>
+        <v>2459.3269466192146</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" si="2"/>
-        <v>2692.5113212517858</v>
+        <v>2598.5843671448984</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="2"/>
-        <v>2881.3238661296705</v>
+        <v>2721.5129898624805</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="2"/>
-        <v>3060.2766040692104</v>
+        <v>2833.1732617933835</v>
       </c>
       <c r="L29" s="12">
         <f t="shared" si="2"/>
-        <v>3232.0125914877935</v>
+        <v>2936.5858188431926</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="2"/>
-        <v>3398.2366539675281</v>
+        <v>3033.6990331057464</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" si="2"/>
-        <v>3560.1128344477675</v>
+        <v>3125.8432393688768</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="2"/>
-        <v>3718.4713973792809</v>
+        <v>3213.9673112906066</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>7</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>1410.749758771301</v>
-      </c>
-      <c r="F30" s="12">
-        <f t="shared" si="2"/>
-        <v>1725.8367700821418</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="2"/>
-        <v>1954.6191596574481</v>
-      </c>
-      <c r="H30" s="12">
-        <f t="shared" si="2"/>
-        <v>2148.0666385358395</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" si="2"/>
-        <v>2322.1525610729595</v>
-      </c>
-      <c r="J30" s="12">
-        <f t="shared" si="2"/>
-        <v>2483.9918852540031</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" si="2"/>
-        <v>2637.3799463450378</v>
-      </c>
-      <c r="L30" s="12">
-        <f t="shared" si="2"/>
-        <v>2784.5822212752514</v>
-      </c>
-      <c r="M30" s="12">
-        <f t="shared" si="2"/>
-        <v>2927.0599891150241</v>
-      </c>
-      <c r="N30" s="12">
-        <f t="shared" si="2"/>
-        <v>3065.8110009552292</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="2"/>
-        <v>3201.5469120393836</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>7</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>1410.749758771301</v>
-      </c>
-      <c r="F31" s="12">
-        <f t="shared" si="2"/>
-        <v>1725.8367700821418</v>
-      </c>
-      <c r="G31" s="12">
-        <f t="shared" si="2"/>
-        <v>1954.6191596574481</v>
-      </c>
-      <c r="H31" s="12">
-        <f t="shared" si="2"/>
-        <v>2148.0666385358395</v>
-      </c>
-      <c r="I31" s="12">
-        <f t="shared" si="2"/>
-        <v>2322.1525610729595</v>
-      </c>
-      <c r="J31" s="12">
-        <f t="shared" si="2"/>
-        <v>2483.9918852540031</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="2"/>
-        <v>2637.3799463450378</v>
-      </c>
-      <c r="L31" s="12">
-        <f t="shared" si="2"/>
-        <v>2784.5822212752514</v>
-      </c>
-      <c r="M31" s="12">
-        <f t="shared" si="2"/>
-        <v>2927.0599891150241</v>
-      </c>
-      <c r="N31" s="12">
-        <f t="shared" si="2"/>
-        <v>3065.8110009552292</v>
-      </c>
-      <c r="O31" s="12">
-        <f t="shared" si="2"/>
-        <v>3201.5469120393836</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -3301,106 +6906,102 @@
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E32" s="12">
         <f t="shared" si="3"/>
-        <v>1847.6663450284013</v>
+        <v>1804.8092021712584</v>
       </c>
       <c r="F32" s="12">
         <f t="shared" si="2"/>
-        <v>2267.7823601095224</v>
+        <v>2182.0680743952366</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="2"/>
-        <v>2572.825546209931</v>
+        <v>2444.2541176385021</v>
       </c>
       <c r="H32" s="12">
         <f t="shared" si="2"/>
-        <v>2830.7555180477862</v>
+        <v>2659.3269466192146</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" si="2"/>
-        <v>3062.8700814306126</v>
+        <v>2848.5843671448984</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="2"/>
-        <v>3278.6558470053378</v>
+        <v>3021.5129898624805</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="2"/>
-        <v>3483.1732617933835</v>
+        <v>3183.1732617933835</v>
       </c>
       <c r="L32" s="12">
         <f t="shared" si="2"/>
-        <v>3679.4429617003352</v>
+        <v>3336.5858188431926</v>
       </c>
       <c r="M32" s="12">
         <f t="shared" si="2"/>
-        <v>3869.4133188200321</v>
+        <v>3483.6990331057464</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" si="2"/>
-        <v>4054.4146679403057</v>
+        <v>3625.8432393688768</v>
       </c>
       <c r="O32" s="12">
         <f t="shared" si="2"/>
-        <v>4235.3958827191782</v>
+        <v>3763.9673112906066</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>1410.749758771301</v>
-      </c>
-      <c r="F33" s="12">
-        <f t="shared" si="2"/>
-        <v>1725.8367700821418</v>
-      </c>
-      <c r="G33" s="12">
-        <f t="shared" si="2"/>
-        <v>1954.6191596574481</v>
-      </c>
-      <c r="H33" s="12">
-        <f t="shared" si="2"/>
-        <v>2148.0666385358395</v>
-      </c>
-      <c r="I33" s="12">
-        <f t="shared" si="2"/>
-        <v>2322.1525610729595</v>
-      </c>
-      <c r="J33" s="12">
-        <f t="shared" si="2"/>
-        <v>2483.9918852540031</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="2"/>
-        <v>2637.3799463450378</v>
-      </c>
-      <c r="L33" s="12">
-        <f t="shared" si="2"/>
-        <v>2784.5822212752514</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" si="2"/>
-        <v>2927.0599891150241</v>
-      </c>
-      <c r="N33" s="12">
-        <f t="shared" si="2"/>
-        <v>3065.8110009552292</v>
-      </c>
-      <c r="O33" s="12">
-        <f t="shared" si="2"/>
-        <v>3201.5469120393836</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3436,9 +7037,2053 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="13">
+        <v>200</v>
+      </c>
+      <c r="G2" s="13">
+        <v>300</v>
+      </c>
+      <c r="H2" s="13">
+        <v>400</v>
+      </c>
+      <c r="I2" s="13">
+        <v>500</v>
+      </c>
+      <c r="J2" s="13">
+        <v>600</v>
+      </c>
+      <c r="K2" s="13">
+        <v>700</v>
+      </c>
+      <c r="L2" s="13">
+        <v>800</v>
+      </c>
+      <c r="M2" s="13">
+        <v>900</v>
+      </c>
+      <c r="N2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1100</v>
+      </c>
+      <c r="P2" s="14">
+        <v>1200</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1500</v>
+      </c>
+      <c r="R2" s="13">
+        <v>1800</v>
+      </c>
+      <c r="S2" s="13">
+        <v>2100</v>
+      </c>
+      <c r="T2" s="9">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>948.22372445737096</v>
+      </c>
+      <c r="F3" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1171.77532473629</v>
+      </c>
+      <c r="G3" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1320.5295861777461</v>
+      </c>
+      <c r="H3" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1438.6602583485426</v>
+      </c>
+      <c r="I3" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1540.0109150235705</v>
+      </c>
+      <c r="J3" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1630.7478531233319</v>
+      </c>
+      <c r="K3" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1714.1603632117524</v>
+      </c>
+      <c r="L3" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1792.2118586274617</v>
+      </c>
+      <c r="M3" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1866.1687812314549</v>
+      </c>
+      <c r="N3" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1936.8958486358229</v>
+      </c>
+      <c r="O3" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2005.0098287182809</v>
+      </c>
+      <c r="P3" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2070.9661200689179</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2258.9834434106124</v>
+      </c>
+      <c r="R3" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2436.3870481770405</v>
+      </c>
+      <c r="S3" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2606.4662249321277</v>
+      </c>
+      <c r="T3" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2771.1843870145035</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>991.55705779070422</v>
+      </c>
+      <c r="F4" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1258.4419914029568</v>
+      </c>
+      <c r="G4" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1450.5295861777461</v>
+      </c>
+      <c r="H4" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1611.9935916818758</v>
+      </c>
+      <c r="I4" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1756.677581690237</v>
+      </c>
+      <c r="J4" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1890.7478531233319</v>
+      </c>
+      <c r="K4" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2017.4936965450856</v>
+      </c>
+      <c r="L4" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2138.8785252941284</v>
+      </c>
+      <c r="M4" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2256.1687812314549</v>
+      </c>
+      <c r="N4" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2370.2291819691563</v>
+      </c>
+      <c r="O4" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2481.6764953849474</v>
+      </c>
+      <c r="P4" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2590.9661200689175</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2908.9834434106119</v>
+      </c>
+      <c r="R4" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>3216.38704817704</v>
+      </c>
+      <c r="S4" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>3516.4662249321277</v>
+      </c>
+      <c r="T4" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>3811.1843870145035</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>1178.7196820661973</v>
+      </c>
+      <c r="F5" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>1536.663836234181</v>
+      </c>
+      <c r="G5" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>1808.3033686666299</v>
+      </c>
+      <c r="H5" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2044.6079904021644</v>
+      </c>
+      <c r="I5" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2261.5510557964276</v>
+      </c>
+      <c r="J5" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2466.2475228346138</v>
+      </c>
+      <c r="K5" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2662.4927267827916</v>
+      </c>
+      <c r="L5" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2852.5521445701479</v>
+      </c>
+      <c r="M5" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3037.8870552670633</v>
+      </c>
+      <c r="N5" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3219.4952099644106</v>
+      </c>
+      <c r="O5" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3398.088263905709</v>
+      </c>
+      <c r="P5" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3574.1916770025969</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>4091.13474239686</v>
+      </c>
+      <c r="R5" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>4595.8312094350458</v>
+      </c>
+      <c r="S5" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>5092.0764133832245</v>
+      </c>
+      <c r="T5" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>5582.1358311705808</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>957.26640172183102</v>
+      </c>
+      <c r="F6" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>1213.8865301951507</v>
+      </c>
+      <c r="G6" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>1398.5861405555252</v>
+      </c>
+      <c r="H6" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>1553.8399920018037</v>
+      </c>
+      <c r="I6" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>1692.9592131636896</v>
+      </c>
+      <c r="J6" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>1821.8729356955114</v>
+      </c>
+      <c r="K6" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>1943.7439389856593</v>
+      </c>
+      <c r="L6" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>2060.4601204751234</v>
+      </c>
+      <c r="M6" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>2173.2392127225526</v>
+      </c>
+      <c r="N6" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>2282.9126749703428</v>
+      </c>
+      <c r="O6" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>2390.0735532547569</v>
+      </c>
+      <c r="P6" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>2495.1597308354976</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>2800.94561866405</v>
+      </c>
+      <c r="R6" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>3096.5260078625388</v>
+      </c>
+      <c r="S6" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>3385.0636778193534</v>
+      </c>
+      <c r="T6" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>3668.4465259754843</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1066.2196820661973</v>
+      </c>
+      <c r="F7" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1311.663836234181</v>
+      </c>
+      <c r="G7" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1470.8033686666301</v>
+      </c>
+      <c r="H7" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1594.6079904021644</v>
+      </c>
+      <c r="I7" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1699.0510557964276</v>
+      </c>
+      <c r="J7" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1791.2475228346138</v>
+      </c>
+      <c r="K7" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1874.9927267827914</v>
+      </c>
+      <c r="L7" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1952.5521445701481</v>
+      </c>
+      <c r="M7" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2025.3870552670633</v>
+      </c>
+      <c r="N7" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2094.4952099644111</v>
+      </c>
+      <c r="O7" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2160.5882639057086</v>
+      </c>
+      <c r="P7" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2224.1916770025973</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2403.6347423968605</v>
+      </c>
+      <c r="R7" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2570.8312094350467</v>
+      </c>
+      <c r="S7" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2729.5764133832245</v>
+      </c>
+      <c r="T7" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2882.1358311705808</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>1718.0795230992958</v>
+      </c>
+      <c r="F8" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>2254.9957543512714</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>2662.4550529999451</v>
+      </c>
+      <c r="H8" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3016.9119856032466</v>
+      </c>
+      <c r="I8" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3342.3265836946412</v>
+      </c>
+      <c r="J8" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3649.3712842519208</v>
+      </c>
+      <c r="K8" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3943.7390901741869</v>
+      </c>
+      <c r="L8" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>4228.8282168552223</v>
+      </c>
+      <c r="M8" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>4506.8305829005949</v>
+      </c>
+      <c r="N8" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>4779.2428149466159</v>
+      </c>
+      <c r="O8" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>5047.1323958585635</v>
+      </c>
+      <c r="P8" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>5311.2875155038955</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>6086.70211359529</v>
+      </c>
+      <c r="R8" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>6843.7468141525696</v>
+      </c>
+      <c r="S8" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>7588.1146200748362</v>
+      </c>
+      <c r="T8" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>8323.2037467558712</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1233.5062957438968</v>
+      </c>
+      <c r="F9" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1526.1078089398775</v>
+      </c>
+      <c r="G9" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1718.0205967777351</v>
+      </c>
+      <c r="H9" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1868.7093221358584</v>
+      </c>
+      <c r="I9" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1996.8095650958321</v>
+      </c>
+      <c r="J9" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2110.6221099737159</v>
+      </c>
+      <c r="K9" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2214.5748479132567</v>
+      </c>
+      <c r="L9" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2311.3108353318394</v>
+      </c>
+      <c r="M9" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2402.5348978115735</v>
+      </c>
+      <c r="N9" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2489.4110782918128</v>
+      </c>
+      <c r="O9" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2572.7696412233267</v>
+      </c>
+      <c r="P9" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2653.223623169697</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2881.3238661296705</v>
+      </c>
+      <c r="R9" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>3095.1364110075547</v>
+      </c>
+      <c r="S9" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>3299.0891489470951</v>
+      </c>
+      <c r="T9" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>3495.8251363656782</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>1395.4357665644534</v>
+      </c>
+      <c r="F10" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>1729.8374959312887</v>
+      </c>
+      <c r="G10" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>1949.1663963174115</v>
+      </c>
+      <c r="H10" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2121.3820824409813</v>
+      </c>
+      <c r="I10" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2267.7823601095224</v>
+      </c>
+      <c r="J10" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2397.853839969961</v>
+      </c>
+      <c r="K10" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2516.6569690437218</v>
+      </c>
+      <c r="L10" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2627.2123832363877</v>
+      </c>
+      <c r="M10" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2731.4684546417984</v>
+      </c>
+      <c r="N10" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2830.7555180477862</v>
+      </c>
+      <c r="O10" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2926.0224471123734</v>
+      </c>
+      <c r="P10" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3017.969855051082</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3278.6558470053378</v>
+      </c>
+      <c r="R10" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3523.0130411514911</v>
+      </c>
+      <c r="S10" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3756.1018845109656</v>
+      </c>
+      <c r="T10" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3980.9430129893462</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:T10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="13">
+        <v>200</v>
+      </c>
+      <c r="G2" s="13">
+        <v>300</v>
+      </c>
+      <c r="H2" s="13">
+        <v>400</v>
+      </c>
+      <c r="I2" s="13">
+        <v>500</v>
+      </c>
+      <c r="J2" s="13">
+        <v>600</v>
+      </c>
+      <c r="K2" s="13">
+        <v>700</v>
+      </c>
+      <c r="L2" s="13">
+        <v>800</v>
+      </c>
+      <c r="M2" s="13">
+        <v>900</v>
+      </c>
+      <c r="N2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1100</v>
+      </c>
+      <c r="P2" s="14">
+        <v>1200</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1500</v>
+      </c>
+      <c r="R2" s="13">
+        <v>1800</v>
+      </c>
+      <c r="S2" s="13">
+        <v>2100</v>
+      </c>
+      <c r="T2" s="9">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>948.22372445737096</v>
+      </c>
+      <c r="F3" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1171.77532473629</v>
+      </c>
+      <c r="G3" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1320.5295861777461</v>
+      </c>
+      <c r="H3" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1438.6602583485426</v>
+      </c>
+      <c r="I3" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1540.0109150235705</v>
+      </c>
+      <c r="J3" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1630.7478531233319</v>
+      </c>
+      <c r="K3" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1714.1603632117524</v>
+      </c>
+      <c r="L3" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1792.2118586274617</v>
+      </c>
+      <c r="M3" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1866.1687812314549</v>
+      </c>
+      <c r="N3" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>1936.8958486358229</v>
+      </c>
+      <c r="O3" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2005.0098287182809</v>
+      </c>
+      <c r="P3" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2070.9661200689179</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2258.9834434106124</v>
+      </c>
+      <c r="R3" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2436.3870481770405</v>
+      </c>
+      <c r="S3" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2606.4662249321277</v>
+      </c>
+      <c r="T3" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D3)*$C3+(100+($C3*10))</f>
+        <v>2771.1843870145035</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>991.55705779070422</v>
+      </c>
+      <c r="F4" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1258.4419914029568</v>
+      </c>
+      <c r="G4" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1450.5295861777461</v>
+      </c>
+      <c r="H4" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1611.9935916818758</v>
+      </c>
+      <c r="I4" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1756.677581690237</v>
+      </c>
+      <c r="J4" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>1890.7478531233319</v>
+      </c>
+      <c r="K4" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2017.4936965450856</v>
+      </c>
+      <c r="L4" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2138.8785252941284</v>
+      </c>
+      <c r="M4" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2256.1687812314549</v>
+      </c>
+      <c r="N4" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2370.2291819691563</v>
+      </c>
+      <c r="O4" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2481.6764953849474</v>
+      </c>
+      <c r="P4" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2590.9661200689175</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>2908.9834434106119</v>
+      </c>
+      <c r="R4" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>3216.38704817704</v>
+      </c>
+      <c r="S4" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>3516.4662249321277</v>
+      </c>
+      <c r="T4" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D4)*$C4+(100+($C4*10))</f>
+        <v>3811.1843870145035</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>1178.7196820661973</v>
+      </c>
+      <c r="F5" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>1536.663836234181</v>
+      </c>
+      <c r="G5" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>1808.3033686666299</v>
+      </c>
+      <c r="H5" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2044.6079904021644</v>
+      </c>
+      <c r="I5" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2261.5510557964276</v>
+      </c>
+      <c r="J5" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2466.2475228346138</v>
+      </c>
+      <c r="K5" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2662.4927267827916</v>
+      </c>
+      <c r="L5" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>2852.5521445701479</v>
+      </c>
+      <c r="M5" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3037.8870552670633</v>
+      </c>
+      <c r="N5" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3219.4952099644106</v>
+      </c>
+      <c r="O5" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3398.088263905709</v>
+      </c>
+      <c r="P5" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>3574.1916770025969</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>4091.13474239686</v>
+      </c>
+      <c r="R5" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>4595.8312094350458</v>
+      </c>
+      <c r="S5" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>5092.0764133832245</v>
+      </c>
+      <c r="T5" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D5)*$C5+(100+($C5*10))</f>
+        <v>5582.1358311705808</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12" t="e">
+        <f>(LN(E$2/5)*100+E$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="12" t="e">
+        <f>(LN(F$2/5)*100+F$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="12" t="e">
+        <f>(LN(G$2/5)*100+G$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="12" t="e">
+        <f>(LN(H$2/5)*100+H$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="12" t="e">
+        <f>(LN(I$2/5)*100+I$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="12" t="e">
+        <f>(LN(J$2/5)*100+J$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="12" t="e">
+        <f>(LN(K$2/5)*100+K$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="12" t="e">
+        <f>(LN(L$2/5)*100+L$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="12" t="e">
+        <f>(LN(M$2/5)*100+M$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="12" t="e">
+        <f>(LN(N$2/5)*100+N$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="12" t="e">
+        <f>(LN(O$2/5)*100+O$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="12" t="e">
+        <f>(LN(P$2/5)*100+P$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="12" t="e">
+        <f>(LN(Q$2/5)*100+Q$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="12" t="e">
+        <f>(LN(R$2/5)*100+R$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="12" t="e">
+        <f>(LN(S$2/5)*100+S$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="12" t="e">
+        <f>(LN(T$2/5)*100+T$2/$D6)*$C6+(100+($C6*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1066.2196820661973</v>
+      </c>
+      <c r="F7" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1311.663836234181</v>
+      </c>
+      <c r="G7" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1470.8033686666301</v>
+      </c>
+      <c r="H7" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1594.6079904021644</v>
+      </c>
+      <c r="I7" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1699.0510557964276</v>
+      </c>
+      <c r="J7" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1791.2475228346138</v>
+      </c>
+      <c r="K7" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1874.9927267827914</v>
+      </c>
+      <c r="L7" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>1952.5521445701481</v>
+      </c>
+      <c r="M7" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2025.3870552670633</v>
+      </c>
+      <c r="N7" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2094.4952099644111</v>
+      </c>
+      <c r="O7" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2160.5882639057086</v>
+      </c>
+      <c r="P7" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2224.1916770025973</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2403.6347423968605</v>
+      </c>
+      <c r="R7" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2570.8312094350467</v>
+      </c>
+      <c r="S7" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2729.5764133832245</v>
+      </c>
+      <c r="T7" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D7)*$C7+(100+($C7*10))</f>
+        <v>2882.1358311705808</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>1718.0795230992958</v>
+      </c>
+      <c r="F8" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>2254.9957543512714</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>2662.4550529999451</v>
+      </c>
+      <c r="H8" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3016.9119856032466</v>
+      </c>
+      <c r="I8" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3342.3265836946412</v>
+      </c>
+      <c r="J8" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3649.3712842519208</v>
+      </c>
+      <c r="K8" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>3943.7390901741869</v>
+      </c>
+      <c r="L8" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>4228.8282168552223</v>
+      </c>
+      <c r="M8" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>4506.8305829005949</v>
+      </c>
+      <c r="N8" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>4779.2428149466159</v>
+      </c>
+      <c r="O8" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>5047.1323958585635</v>
+      </c>
+      <c r="P8" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>5311.2875155038955</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>6086.70211359529</v>
+      </c>
+      <c r="R8" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>6843.7468141525696</v>
+      </c>
+      <c r="S8" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>7588.1146200748362</v>
+      </c>
+      <c r="T8" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D8)*$C8+(100+($C8*10))</f>
+        <v>8323.2037467558712</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1233.5062957438968</v>
+      </c>
+      <c r="F9" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1526.1078089398775</v>
+      </c>
+      <c r="G9" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1718.0205967777351</v>
+      </c>
+      <c r="H9" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1868.7093221358584</v>
+      </c>
+      <c r="I9" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>1996.8095650958321</v>
+      </c>
+      <c r="J9" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2110.6221099737159</v>
+      </c>
+      <c r="K9" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2214.5748479132567</v>
+      </c>
+      <c r="L9" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2311.3108353318394</v>
+      </c>
+      <c r="M9" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2402.5348978115735</v>
+      </c>
+      <c r="N9" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2489.4110782918128</v>
+      </c>
+      <c r="O9" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2572.7696412233267</v>
+      </c>
+      <c r="P9" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2653.223623169697</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>2881.3238661296705</v>
+      </c>
+      <c r="R9" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>3095.1364110075547</v>
+      </c>
+      <c r="S9" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>3299.0891489470951</v>
+      </c>
+      <c r="T9" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D9)*$C9+(100+($C9*10))</f>
+        <v>3495.8251363656782</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>1395.4357665644534</v>
+      </c>
+      <c r="F10" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>1729.8374959312887</v>
+      </c>
+      <c r="G10" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>1949.1663963174115</v>
+      </c>
+      <c r="H10" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2121.3820824409813</v>
+      </c>
+      <c r="I10" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2267.7823601095224</v>
+      </c>
+      <c r="J10" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2397.853839969961</v>
+      </c>
+      <c r="K10" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2516.6569690437218</v>
+      </c>
+      <c r="L10" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2627.2123832363877</v>
+      </c>
+      <c r="M10" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2731.4684546417984</v>
+      </c>
+      <c r="N10" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2830.7555180477862</v>
+      </c>
+      <c r="O10" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>2926.0224471123734</v>
+      </c>
+      <c r="P10" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3017.969855051082</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3278.6558470053378</v>
+      </c>
+      <c r="R10" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3523.0130411514911</v>
+      </c>
+      <c r="S10" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3756.1018845109656</v>
+      </c>
+      <c r="T10" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D10)*$C10+(100+($C10*10))</f>
+        <v>3980.9430129893462</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13">
+        <v>200</v>
+      </c>
+      <c r="G12" s="13">
+        <v>300</v>
+      </c>
+      <c r="H12" s="13">
+        <v>400</v>
+      </c>
+      <c r="I12" s="13">
+        <v>500</v>
+      </c>
+      <c r="J12" s="13">
+        <v>600</v>
+      </c>
+      <c r="K12" s="13">
+        <v>700</v>
+      </c>
+      <c r="L12" s="13">
+        <v>800</v>
+      </c>
+      <c r="M12" s="13">
+        <v>900</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1100</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1200</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>1500</v>
+      </c>
+      <c r="R12" s="13">
+        <v>1800</v>
+      </c>
+      <c r="S12" s="13">
+        <v>2100</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1066.2196820661973</v>
+      </c>
+      <c r="F13" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1311.663836234181</v>
+      </c>
+      <c r="G13" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1470.8033686666301</v>
+      </c>
+      <c r="H13" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1594.6079904021644</v>
+      </c>
+      <c r="I13" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1699.0510557964276</v>
+      </c>
+      <c r="J13" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1791.2475228346138</v>
+      </c>
+      <c r="K13" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1874.9927267827914</v>
+      </c>
+      <c r="L13" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>1952.5521445701481</v>
+      </c>
+      <c r="M13" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2025.3870552670633</v>
+      </c>
+      <c r="N13" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2094.4952099644111</v>
+      </c>
+      <c r="O13" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2160.5882639057086</v>
+      </c>
+      <c r="P13" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2224.1916770025973</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2403.6347423968605</v>
+      </c>
+      <c r="R13" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2570.8312094350467</v>
+      </c>
+      <c r="S13" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2729.5764133832245</v>
+      </c>
+      <c r="T13" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D13)*$C13+(100+($C13*10))</f>
+        <v>2882.1358311705808</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>1103.7196820661973</v>
+      </c>
+      <c r="F14" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>1386.663836234181</v>
+      </c>
+      <c r="G14" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>1583.3033686666301</v>
+      </c>
+      <c r="H14" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>1744.6079904021644</v>
+      </c>
+      <c r="I14" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>1886.5510557964276</v>
+      </c>
+      <c r="J14" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2016.2475228346138</v>
+      </c>
+      <c r="K14" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2137.4927267827916</v>
+      </c>
+      <c r="L14" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2252.5521445701479</v>
+      </c>
+      <c r="M14" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2362.8870552670633</v>
+      </c>
+      <c r="N14" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2469.4952099644111</v>
+      </c>
+      <c r="O14" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2573.0882639057086</v>
+      </c>
+      <c r="P14" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2674.1916770025973</v>
+      </c>
+      <c r="Q14" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>2966.1347423968605</v>
+      </c>
+      <c r="R14" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>3245.8312094350463</v>
+      </c>
+      <c r="S14" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>3517.0764133832245</v>
+      </c>
+      <c r="T14" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D14)*$C14+(100+($C14*10))</f>
+        <v>3782.1358311705808</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>1241.8396290772303</v>
+      </c>
+      <c r="F15" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>1542.7744756065442</v>
+      </c>
+      <c r="G15" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>1743.0205967777351</v>
+      </c>
+      <c r="H15" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>1902.0426554691917</v>
+      </c>
+      <c r="I15" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2038.4762317624989</v>
+      </c>
+      <c r="J15" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2160.6221099737159</v>
+      </c>
+      <c r="K15" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2272.9081812465897</v>
+      </c>
+      <c r="L15" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2377.9775019985059</v>
+      </c>
+      <c r="M15" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2477.5348978115735</v>
+      </c>
+      <c r="N15" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2572.7444116251459</v>
+      </c>
+      <c r="O15" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2664.4363078899937</v>
+      </c>
+      <c r="P15" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>2753.2236231696966</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>3006.3238661296705</v>
+      </c>
+      <c r="R15" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>3245.1364110075542</v>
+      </c>
+      <c r="S15" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>3474.0891489470951</v>
+      </c>
+      <c r="T15" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D15)*$C15+(100+($C15*10))</f>
+        <v>3695.8251363656777</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="12" t="e">
+        <f>(LN(E$2/5)*100+E$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="12" t="e">
+        <f>(LN(F$2/5)*100+F$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="12" t="e">
+        <f>(LN(G$2/5)*100+G$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="12" t="e">
+        <f>(LN(H$2/5)*100+H$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="12" t="e">
+        <f>(LN(I$2/5)*100+I$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="12" t="e">
+        <f>(LN(J$2/5)*100+J$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="12" t="e">
+        <f>(LN(K$2/5)*100+K$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="12" t="e">
+        <f>(LN(L$2/5)*100+L$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="12" t="e">
+        <f>(LN(M$2/5)*100+M$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="12" t="e">
+        <f>(LN(N$2/5)*100+N$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="12" t="e">
+        <f>(LN(O$2/5)*100+O$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="12" t="e">
+        <f>(LN(P$2/5)*100+P$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="12" t="e">
+        <f>(LN(Q$2/5)*100+Q$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="12" t="e">
+        <f>(LN(R$2/5)*100+R$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" s="12" t="e">
+        <f>(LN(S$2/5)*100+S$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="12" t="e">
+        <f>(LN(T$2/5)*100+T$2/$D16)*$C16+(100+($C16*10))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>1111.343671468404</v>
+      </c>
+      <c r="F17" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>1377.8859641086535</v>
+      </c>
+      <c r="G17" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>1555.2468142888511</v>
+      </c>
+      <c r="H17" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>1696.0949234155698</v>
+      </c>
+      <c r="I17" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>1816.9360909896418</v>
+      </c>
+      <c r="J17" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>1925.1224402624343</v>
+      </c>
+      <c r="K17" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2024.575817675551</v>
+      </c>
+      <c r="L17" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2117.6372160558194</v>
+      </c>
+      <c r="M17" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2205.8166237759651</v>
+      </c>
+      <c r="N17" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2290.1450502965581</v>
+      </c>
+      <c r="O17" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2371.3578727025656</v>
+      </c>
+      <c r="P17" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2449.9980662360172</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2674.1725671434224</v>
+      </c>
+      <c r="R17" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>2885.6922497495484</v>
+      </c>
+      <c r="S17" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>3088.4789604959983</v>
+      </c>
+      <c r="T17" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D17)*$C17+(100+($C17*10))</f>
+        <v>3284.8736922096004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>1452.5786237073105</v>
+      </c>
+      <c r="F18" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>1844.1232102170031</v>
+      </c>
+      <c r="G18" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>2120.594967745983</v>
+      </c>
+      <c r="H18" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>2349.9535110124098</v>
+      </c>
+      <c r="I18" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>2553.4966458238082</v>
+      </c>
+      <c r="J18" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>2740.7109828271041</v>
+      </c>
+      <c r="K18" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>2916.6569690437218</v>
+      </c>
+      <c r="L18" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>3084.3552403792451</v>
+      </c>
+      <c r="M18" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>3245.7541689275131</v>
+      </c>
+      <c r="N18" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>3402.1840894763573</v>
+      </c>
+      <c r="O18" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>3554.5938756838023</v>
+      </c>
+      <c r="P18" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>3703.6841407653674</v>
+      </c>
+      <c r="Q18" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>4135.7987041481947</v>
+      </c>
+      <c r="R18" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>4551.5844697229195</v>
+      </c>
+      <c r="S18" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>4956.1018845109656</v>
+      </c>
+      <c r="T18" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D18)*$C18+(100+($C18*10))</f>
+        <v>5352.3715844179169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>1253.5062957438968</v>
+      </c>
+      <c r="F19" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>1566.1078089398777</v>
+      </c>
+      <c r="G19" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>1778.0205967777351</v>
+      </c>
+      <c r="H19" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>1948.7093221358584</v>
+      </c>
+      <c r="I19" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2096.8095650958321</v>
+      </c>
+      <c r="J19" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2230.6221099737159</v>
+      </c>
+      <c r="K19" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2354.5748479132567</v>
+      </c>
+      <c r="L19" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2471.3108353318394</v>
+      </c>
+      <c r="M19" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2582.5348978115735</v>
+      </c>
+      <c r="N19" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2689.4110782918128</v>
+      </c>
+      <c r="O19" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2792.7696412233267</v>
+      </c>
+      <c r="P19" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>2893.2236231696966</v>
+      </c>
+      <c r="Q19" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>3181.3238661296705</v>
+      </c>
+      <c r="R19" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>3455.1364110075542</v>
+      </c>
+      <c r="S19" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>3719.0891489470951</v>
+      </c>
+      <c r="T19" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D19)*$C19+(100+($C19*10))</f>
+        <v>3975.8251363656777</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>1452.7075548926762</v>
+      </c>
+      <c r="F20" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>1796.3293707278533</v>
+      </c>
+      <c r="G20" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2019.1247161332822</v>
+      </c>
+      <c r="H20" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2192.4511865630302</v>
+      </c>
+      <c r="I20" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2338.6714781149985</v>
+      </c>
+      <c r="J20" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2467.7465319684593</v>
+      </c>
+      <c r="K20" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2584.989817495908</v>
+      </c>
+      <c r="L20" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2693.5730023982073</v>
+      </c>
+      <c r="M20" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2795.5418773738884</v>
+      </c>
+      <c r="N20" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2892.2932939501757</v>
+      </c>
+      <c r="O20" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>2984.8235694679925</v>
+      </c>
+      <c r="P20" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>3073.8683478036364</v>
+      </c>
+      <c r="Q20" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>3325.0886393556048</v>
+      </c>
+      <c r="R20" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>3559.1636932090655</v>
+      </c>
+      <c r="S20" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>3781.4069787365142</v>
+      </c>
+      <c r="T20" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D20)*$C20+(100+($C20*10))</f>
+        <v>3994.9901636388136</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:T10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:T20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3446,7 +9091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/cargos/simulator.xlsx
+++ b/cargos/simulator.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>div</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>DIAM/VALU</t>
+  </si>
+  <si>
+    <t>v9</t>
+  </si>
+  <si>
+    <t>v12</t>
   </si>
 </sst>
 </file>
@@ -3185,7 +3191,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -3193,7 +3199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WATR</c:v>
+                  <c:v>FOOD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3265,52 +3271,52 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1066.2196820661973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1311.663836234181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1470.8033686666301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1594.6079904021644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1699.0510557964276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1791.2475228346138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1874.9927267827914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1952.5521445701481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2025.3870552670633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2094.4952099644111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2160.5882639057086</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2224.1916770025973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2403.6347423968605</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2570.8312094350467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2729.5764133832245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2882.1358311705808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,7 +3324,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -3326,7 +3332,143 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FOOD</c:v>
+                  <c:v>DIAM/VALU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="dbl"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1718.0795230992958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2254.9957543512714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2662.4550529999451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3016.9119856032466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3342.3265836946412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3649.3712842519208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3943.7390901741869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4228.8282168552223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4506.8305829005949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4779.2428149466159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5047.1323958585635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5311.2875155038955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6086.70211359529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6843.7468141525696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7588.1146200748362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8323.2037467558712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3393,57 +3535,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nais12!$E$7:$T$7</c:f>
+              <c:f>nais12!$E$8:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1066.2196820661973</c:v>
+                  <c:v>1233.5062957438968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1311.663836234181</c:v>
+                  <c:v>1526.1078089398775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1470.8033686666301</c:v>
+                  <c:v>1718.0205967777351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1594.6079904021644</c:v>
+                  <c:v>1868.7093221358584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1699.0510557964276</c:v>
+                  <c:v>1996.8095650958321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1791.2475228346138</c:v>
+                  <c:v>2110.6221099737159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1874.9927267827914</c:v>
+                  <c:v>2214.5748479132567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1952.5521445701481</c:v>
+                  <c:v>2311.3108353318394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2025.3870552670633</c:v>
+                  <c:v>2402.5348978115735</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2094.4952099644111</c:v>
+                  <c:v>2489.4110782918128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2160.5882639057086</c:v>
+                  <c:v>2572.7696412233267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2224.1916770025973</c:v>
+                  <c:v>2653.223623169697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2403.6347423968605</c:v>
+                  <c:v>2881.3238661296705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2570.8312094350467</c:v>
+                  <c:v>3095.1364110075547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2729.5764133832245</c:v>
+                  <c:v>3299.0891489470951</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2882.1358311705808</c:v>
+                  <c:v>3495.8251363656782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3451,15 +3593,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:idx val="11"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>nais12!$B$8</c:f>
+              <c:f>nais12!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIAM/VALU</c:v>
+                  <c:v>VEHI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3526,273 +3668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nais12!$E$8:$T$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1718.0795230992958</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2254.9957543512714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2662.4550529999451</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3016.9119856032466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3342.3265836946412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3649.3712842519208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3943.7390901741869</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4228.8282168552223</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4506.8305829005949</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4779.2428149466159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5047.1323958585635</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5311.2875155038955</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6086.70211359529</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6843.7468141525696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7588.1146200748362</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8323.2037467558712</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nais12!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BEER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nais12!$E$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>nais12!$E$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1233.5062957438968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1526.1078089398775</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1718.0205967777351</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1868.7093221358584</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996.8095650958321</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2110.6221099737159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2214.5748479132567</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2311.3108353318394</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2402.5348978115735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2489.4110782918128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2572.7696412233267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2653.223623169697</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2881.3238661296705</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3095.1364110075547</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3299.0891489470951</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3495.8251363656782</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nais12!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VEHI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nais12!$E$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nais12!$E$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3940,7 +3816,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nais12!$B$13</c:f>
+              <c:f>nais12!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4016,7 +3892,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nais12!$E$13:$T$13</c:f>
+              <c:f>nais12!$E$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4078,7 +3954,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>nais12!$B$14</c:f>
+              <c:f>nais12!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4157,7 +4033,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nais12!$E$14:$T$14</c:f>
+              <c:f>nais12!$E$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4219,7 +4095,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nais12!$B$15</c:f>
+              <c:f>nais12!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4295,7 +4171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nais12!$E$15:$T$15</c:f>
+              <c:f>nais12!$E$14:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4353,15 +4229,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>nais12!$B$16</c:f>
+              <c:f>nais12!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WATR</c:v>
+                  <c:v>FOOD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4428,57 +4304,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nais12!$E$16:$T$16</c:f>
+              <c:f>nais12!$E$15:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1111.343671468404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1377.8859641086535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1555.2468142888511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1696.0949234155698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1816.9360909896418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1925.1224402624343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2024.575817675551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2117.6372160558194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2205.8166237759651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2290.1450502965581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2371.3578727025656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2449.9980662360172</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2674.1725671434224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2885.6922497495484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3088.4789604959983</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3284.8736922096004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4486,15 +4362,151 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nais12!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIAM/VALU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="dbl"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nais12!$E$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nais12!$E$16:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1452.5786237073105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1844.1232102170031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2120.594967745983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2349.9535110124098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2553.4966458238082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2740.7109828271041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2916.6569690437218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3084.3552403792451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3245.7541689275131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3402.1840894763573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3554.5938756838023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3703.6841407653674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4135.7987041481947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4551.5844697229195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4956.1018845109656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5352.3715844179169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>nais12!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FOOD</c:v>
+                  <c:v>BEER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4566,52 +4578,52 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1111.343671468404</c:v>
+                  <c:v>1253.5062957438968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1377.8859641086535</c:v>
+                  <c:v>1566.1078089398777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1555.2468142888511</c:v>
+                  <c:v>1778.0205967777351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1696.0949234155698</c:v>
+                  <c:v>1948.7093221358584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1816.9360909896418</c:v>
+                  <c:v>2096.8095650958321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1925.1224402624343</c:v>
+                  <c:v>2230.6221099737159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2024.575817675551</c:v>
+                  <c:v>2354.5748479132567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2117.6372160558194</c:v>
+                  <c:v>2471.3108353318394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2205.8166237759651</c:v>
+                  <c:v>2582.5348978115735</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2290.1450502965581</c:v>
+                  <c:v>2689.4110782918128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2371.3578727025656</c:v>
+                  <c:v>2792.7696412233267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2449.9980662360172</c:v>
+                  <c:v>2893.2236231696966</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2674.1725671434224</c:v>
+                  <c:v>3181.3238661296705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2885.6922497495484</c:v>
+                  <c:v>3455.1364110075542</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3088.4789604959983</c:v>
+                  <c:v>3719.0891489470951</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3284.8736922096004</c:v>
+                  <c:v>3975.8251363656777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4619,15 +4631,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:idx val="11"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>nais12!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIAM/VALU</c:v>
+                  <c:v>VEHI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4695,272 +4707,6 @@
           <c:val>
             <c:numRef>
               <c:f>nais12!$E$18:$T$18</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1452.5786237073105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1844.1232102170031</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2120.594967745983</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2349.9535110124098</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2553.4966458238082</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2740.7109828271041</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2916.6569690437218</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3084.3552403792451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3245.7541689275131</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3402.1840894763573</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3554.5938756838023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3703.6841407653674</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4135.7987041481947</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4551.5844697229195</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4956.1018845109656</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5352.3715844179169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nais12!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BEER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nais12!$E$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nais12!$E$19:$T$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1253.5062957438968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1566.1078089398777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1778.0205967777351</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1948.7093221358584</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2096.8095650958321</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2230.6221099737159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2354.5748479132567</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2471.3108353318394</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2582.5348978115735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2689.4110782918128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2792.7696412233267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2893.2236231696966</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3181.3238661296705</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3455.1364110075542</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3719.0891489470951</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3975.8251363656777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nais12!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VEHI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nais12!$E$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nais12!$E$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5161,13 +4907,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5193,13 +4939,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7726,16 +7472,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T20"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -7794,7 +7543,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -7869,7 +7618,7 @@
         <v>2771.1843870145035</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -7944,7 +7693,7 @@
         <v>3811.1843870145035</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -8019,1036 +7768,897 @@
         <v>5582.1358311705808</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12" t="e">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
         <f>(LN(E$2/5)*100+E$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="12" t="e">
+        <v>1066.2196820661973</v>
+      </c>
+      <c r="F6" s="12">
         <f>(LN(F$2/5)*100+F$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="12" t="e">
+        <v>1311.663836234181</v>
+      </c>
+      <c r="G6" s="12">
         <f>(LN(G$2/5)*100+G$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="12" t="e">
+        <v>1470.8033686666301</v>
+      </c>
+      <c r="H6" s="12">
         <f>(LN(H$2/5)*100+H$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="12" t="e">
+        <v>1594.6079904021644</v>
+      </c>
+      <c r="I6" s="12">
         <f>(LN(I$2/5)*100+I$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="12" t="e">
+        <v>1699.0510557964276</v>
+      </c>
+      <c r="J6" s="12">
         <f>(LN(J$2/5)*100+J$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="12" t="e">
+        <v>1791.2475228346138</v>
+      </c>
+      <c r="K6" s="12">
         <f>(LN(K$2/5)*100+K$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="12" t="e">
+        <v>1874.9927267827914</v>
+      </c>
+      <c r="L6" s="12">
         <f>(LN(L$2/5)*100+L$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="12" t="e">
+        <v>1952.5521445701481</v>
+      </c>
+      <c r="M6" s="12">
         <f>(LN(M$2/5)*100+M$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="12" t="e">
+        <v>2025.3870552670633</v>
+      </c>
+      <c r="N6" s="12">
         <f>(LN(N$2/5)*100+N$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="12" t="e">
+        <v>2094.4952099644111</v>
+      </c>
+      <c r="O6" s="12">
         <f>(LN(O$2/5)*100+O$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="12" t="e">
+        <v>2160.5882639057086</v>
+      </c>
+      <c r="P6" s="12">
         <f>(LN(P$2/5)*100+P$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="12" t="e">
+        <v>2224.1916770025973</v>
+      </c>
+      <c r="Q6" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="12" t="e">
+        <v>2403.6347423968605</v>
+      </c>
+      <c r="R6" s="12">
         <f>(LN(R$2/5)*100+R$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="12" t="e">
+        <v>2570.8312094350467</v>
+      </c>
+      <c r="S6" s="12">
         <f>(LN(S$2/5)*100+S$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="12" t="e">
+        <v>2729.5764133832245</v>
+      </c>
+      <c r="T6" s="12">
         <f>(LN(T$2/5)*100+T$2/$D6)*$C6+(100+($C6*10))</f>
-        <v>#DIV/0!</v>
+        <v>2882.1358311705808</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" s="12">
         <f>(LN(E$2/5)*100+E$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1066.2196820661973</v>
+        <v>1718.0795230992958</v>
       </c>
       <c r="F7" s="12">
         <f>(LN(F$2/5)*100+F$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1311.663836234181</v>
+        <v>2254.9957543512714</v>
       </c>
       <c r="G7" s="12">
         <f>(LN(G$2/5)*100+G$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1470.8033686666301</v>
+        <v>2662.4550529999451</v>
       </c>
       <c r="H7" s="12">
         <f>(LN(H$2/5)*100+H$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1594.6079904021644</v>
+        <v>3016.9119856032466</v>
       </c>
       <c r="I7" s="12">
         <f>(LN(I$2/5)*100+I$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1699.0510557964276</v>
+        <v>3342.3265836946412</v>
       </c>
       <c r="J7" s="12">
         <f>(LN(J$2/5)*100+J$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1791.2475228346138</v>
+        <v>3649.3712842519208</v>
       </c>
       <c r="K7" s="12">
         <f>(LN(K$2/5)*100+K$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1874.9927267827914</v>
+        <v>3943.7390901741869</v>
       </c>
       <c r="L7" s="12">
         <f>(LN(L$2/5)*100+L$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>1952.5521445701481</v>
+        <v>4228.8282168552223</v>
       </c>
       <c r="M7" s="12">
         <f>(LN(M$2/5)*100+M$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2025.3870552670633</v>
+        <v>4506.8305829005949</v>
       </c>
       <c r="N7" s="12">
         <f>(LN(N$2/5)*100+N$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2094.4952099644111</v>
+        <v>4779.2428149466159</v>
       </c>
       <c r="O7" s="12">
         <f>(LN(O$2/5)*100+O$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2160.5882639057086</v>
+        <v>5047.1323958585635</v>
       </c>
       <c r="P7" s="12">
         <f>(LN(P$2/5)*100+P$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2224.1916770025973</v>
+        <v>5311.2875155038955</v>
       </c>
       <c r="Q7" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2403.6347423968605</v>
+        <v>6086.70211359529</v>
       </c>
       <c r="R7" s="12">
         <f>(LN(R$2/5)*100+R$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2570.8312094350467</v>
+        <v>6843.7468141525696</v>
       </c>
       <c r="S7" s="12">
         <f>(LN(S$2/5)*100+S$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2729.5764133832245</v>
+        <v>7588.1146200748362</v>
       </c>
       <c r="T7" s="12">
         <f>(LN(T$2/5)*100+T$2/$D7)*$C7+(100+($C7*10))</f>
-        <v>2882.1358311705808</v>
+        <v>8323.2037467558712</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12">
         <f>(LN(E$2/5)*100+E$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>1718.0795230992958</v>
+        <v>1233.5062957438968</v>
       </c>
       <c r="F8" s="12">
         <f>(LN(F$2/5)*100+F$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>2254.9957543512714</v>
+        <v>1526.1078089398775</v>
       </c>
       <c r="G8" s="12">
         <f>(LN(G$2/5)*100+G$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>2662.4550529999451</v>
+        <v>1718.0205967777351</v>
       </c>
       <c r="H8" s="12">
         <f>(LN(H$2/5)*100+H$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>3016.9119856032466</v>
+        <v>1868.7093221358584</v>
       </c>
       <c r="I8" s="12">
         <f>(LN(I$2/5)*100+I$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>3342.3265836946412</v>
+        <v>1996.8095650958321</v>
       </c>
       <c r="J8" s="12">
         <f>(LN(J$2/5)*100+J$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>3649.3712842519208</v>
+        <v>2110.6221099737159</v>
       </c>
       <c r="K8" s="12">
         <f>(LN(K$2/5)*100+K$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>3943.7390901741869</v>
+        <v>2214.5748479132567</v>
       </c>
       <c r="L8" s="12">
         <f>(LN(L$2/5)*100+L$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>4228.8282168552223</v>
+        <v>2311.3108353318394</v>
       </c>
       <c r="M8" s="12">
         <f>(LN(M$2/5)*100+M$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>4506.8305829005949</v>
+        <v>2402.5348978115735</v>
       </c>
       <c r="N8" s="12">
         <f>(LN(N$2/5)*100+N$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>4779.2428149466159</v>
+        <v>2489.4110782918128</v>
       </c>
       <c r="O8" s="12">
         <f>(LN(O$2/5)*100+O$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>5047.1323958585635</v>
+        <v>2572.7696412233267</v>
       </c>
       <c r="P8" s="12">
         <f>(LN(P$2/5)*100+P$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>5311.2875155038955</v>
+        <v>2653.223623169697</v>
       </c>
       <c r="Q8" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>6086.70211359529</v>
+        <v>2881.3238661296705</v>
       </c>
       <c r="R8" s="12">
         <f>(LN(R$2/5)*100+R$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>6843.7468141525696</v>
+        <v>3095.1364110075547</v>
       </c>
       <c r="S8" s="12">
         <f>(LN(S$2/5)*100+S$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>7588.1146200748362</v>
+        <v>3299.0891489470951</v>
       </c>
       <c r="T8" s="12">
         <f>(LN(T$2/5)*100+T$2/$D8)*$C8+(100+($C8*10))</f>
-        <v>8323.2037467558712</v>
+        <v>3495.8251363656782</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="E9" s="12">
         <f>(LN(E$2/5)*100+E$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>1233.5062957438968</v>
+        <v>1395.4357665644534</v>
       </c>
       <c r="F9" s="12">
         <f>(LN(F$2/5)*100+F$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>1526.1078089398775</v>
+        <v>1729.8374959312887</v>
       </c>
       <c r="G9" s="12">
         <f>(LN(G$2/5)*100+G$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>1718.0205967777351</v>
+        <v>1949.1663963174115</v>
       </c>
       <c r="H9" s="12">
         <f>(LN(H$2/5)*100+H$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>1868.7093221358584</v>
+        <v>2121.3820824409813</v>
       </c>
       <c r="I9" s="12">
         <f>(LN(I$2/5)*100+I$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>1996.8095650958321</v>
+        <v>2267.7823601095224</v>
       </c>
       <c r="J9" s="12">
         <f>(LN(J$2/5)*100+J$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2110.6221099737159</v>
+        <v>2397.853839969961</v>
       </c>
       <c r="K9" s="12">
         <f>(LN(K$2/5)*100+K$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2214.5748479132567</v>
+        <v>2516.6569690437218</v>
       </c>
       <c r="L9" s="12">
         <f>(LN(L$2/5)*100+L$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2311.3108353318394</v>
+        <v>2627.2123832363877</v>
       </c>
       <c r="M9" s="12">
         <f>(LN(M$2/5)*100+M$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2402.5348978115735</v>
+        <v>2731.4684546417984</v>
       </c>
       <c r="N9" s="12">
         <f>(LN(N$2/5)*100+N$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2489.4110782918128</v>
+        <v>2830.7555180477862</v>
       </c>
       <c r="O9" s="12">
         <f>(LN(O$2/5)*100+O$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2572.7696412233267</v>
+        <v>2926.0224471123734</v>
       </c>
       <c r="P9" s="12">
         <f>(LN(P$2/5)*100+P$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2653.223623169697</v>
+        <v>3017.969855051082</v>
       </c>
       <c r="Q9" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>2881.3238661296705</v>
+        <v>3278.6558470053378</v>
       </c>
       <c r="R9" s="12">
         <f>(LN(R$2/5)*100+R$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>3095.1364110075547</v>
+        <v>3523.0130411514911</v>
       </c>
       <c r="S9" s="12">
         <f>(LN(S$2/5)*100+S$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>3299.0891489470951</v>
+        <v>3756.1018845109656</v>
       </c>
       <c r="T9" s="12">
         <f>(LN(T$2/5)*100+T$2/$D9)*$C9+(100+($C9*10))</f>
-        <v>3495.8251363656782</v>
+        <v>3980.9430129893462</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>100</v>
+      </c>
+      <c r="F11" s="13">
+        <v>200</v>
+      </c>
+      <c r="G11" s="13">
+        <v>300</v>
+      </c>
+      <c r="H11" s="13">
+        <v>400</v>
+      </c>
+      <c r="I11" s="13">
+        <v>500</v>
+      </c>
+      <c r="J11" s="13">
+        <v>600</v>
+      </c>
+      <c r="K11" s="13">
+        <v>700</v>
+      </c>
+      <c r="L11" s="13">
+        <v>800</v>
+      </c>
+      <c r="M11" s="13">
+        <v>900</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1100</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1200</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1500</v>
+      </c>
+      <c r="R11" s="13">
+        <v>1800</v>
+      </c>
+      <c r="S11" s="13">
+        <v>2100</v>
+      </c>
+      <c r="T11" s="9">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12">
+        <f>(LN(E$2/5)*100+E$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1066.2196820661973</v>
+      </c>
+      <c r="F12" s="12">
+        <f>(LN(F$2/5)*100+F$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1311.663836234181</v>
+      </c>
+      <c r="G12" s="12">
+        <f>(LN(G$2/5)*100+G$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1470.8033686666301</v>
+      </c>
+      <c r="H12" s="12">
+        <f>(LN(H$2/5)*100+H$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1594.6079904021644</v>
+      </c>
+      <c r="I12" s="12">
+        <f>(LN(I$2/5)*100+I$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1699.0510557964276</v>
+      </c>
+      <c r="J12" s="12">
+        <f>(LN(J$2/5)*100+J$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1791.2475228346138</v>
+      </c>
+      <c r="K12" s="12">
+        <f>(LN(K$2/5)*100+K$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1874.9927267827914</v>
+      </c>
+      <c r="L12" s="12">
+        <f>(LN(L$2/5)*100+L$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>1952.5521445701481</v>
+      </c>
+      <c r="M12" s="12">
+        <f>(LN(M$2/5)*100+M$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2025.3870552670633</v>
+      </c>
+      <c r="N12" s="12">
+        <f>(LN(N$2/5)*100+N$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2094.4952099644111</v>
+      </c>
+      <c r="O12" s="12">
+        <f>(LN(O$2/5)*100+O$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2160.5882639057086</v>
+      </c>
+      <c r="P12" s="12">
+        <f>(LN(P$2/5)*100+P$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2224.1916770025973</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>(LN(Q$2/5)*100+Q$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2403.6347423968605</v>
+      </c>
+      <c r="R12" s="12">
+        <f>(LN(R$2/5)*100+R$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2570.8312094350467</v>
+      </c>
+      <c r="S12" s="12">
+        <f>(LN(S$2/5)*100+S$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2729.5764133832245</v>
+      </c>
+      <c r="T12" s="12">
+        <f>(LN(T$2/5)*100+T$2/$D12)*$C12+(100+($C12*10))</f>
+        <v>2882.1358311705808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12">
-        <f>(LN(E$2/5)*100+E$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>1395.4357665644534</v>
-      </c>
-      <c r="F10" s="12">
-        <f>(LN(F$2/5)*100+F$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>1729.8374959312887</v>
-      </c>
-      <c r="G10" s="12">
-        <f>(LN(G$2/5)*100+G$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>1949.1663963174115</v>
-      </c>
-      <c r="H10" s="12">
-        <f>(LN(H$2/5)*100+H$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2121.3820824409813</v>
-      </c>
-      <c r="I10" s="12">
-        <f>(LN(I$2/5)*100+I$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2267.7823601095224</v>
-      </c>
-      <c r="J10" s="12">
-        <f>(LN(J$2/5)*100+J$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2397.853839969961</v>
-      </c>
-      <c r="K10" s="12">
-        <f>(LN(K$2/5)*100+K$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2516.6569690437218</v>
-      </c>
-      <c r="L10" s="12">
-        <f>(LN(L$2/5)*100+L$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2627.2123832363877</v>
-      </c>
-      <c r="M10" s="12">
-        <f>(LN(M$2/5)*100+M$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2731.4684546417984</v>
-      </c>
-      <c r="N10" s="12">
-        <f>(LN(N$2/5)*100+N$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2830.7555180477862</v>
-      </c>
-      <c r="O10" s="12">
-        <f>(LN(O$2/5)*100+O$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>2926.0224471123734</v>
-      </c>
-      <c r="P10" s="12">
-        <f>(LN(P$2/5)*100+P$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>3017.969855051082</v>
-      </c>
-      <c r="Q10" s="12">
-        <f>(LN(Q$2/5)*100+Q$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>3278.6558470053378</v>
-      </c>
-      <c r="R10" s="12">
-        <f>(LN(R$2/5)*100+R$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>3523.0130411514911</v>
-      </c>
-      <c r="S10" s="12">
-        <f>(LN(S$2/5)*100+S$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>3756.1018845109656</v>
-      </c>
-      <c r="T10" s="12">
-        <f>(LN(T$2/5)*100+T$2/$D10)*$C10+(100+($C10*10))</f>
-        <v>3980.9430129893462</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>100</v>
-      </c>
-      <c r="F12" s="13">
-        <v>200</v>
-      </c>
-      <c r="G12" s="13">
-        <v>300</v>
-      </c>
-      <c r="H12" s="13">
-        <v>400</v>
-      </c>
-      <c r="I12" s="13">
-        <v>500</v>
-      </c>
-      <c r="J12" s="13">
-        <v>600</v>
-      </c>
-      <c r="K12" s="13">
-        <v>700</v>
-      </c>
-      <c r="L12" s="13">
-        <v>800</v>
-      </c>
-      <c r="M12" s="13">
-        <v>900</v>
-      </c>
-      <c r="N12" s="13">
-        <v>1000</v>
-      </c>
-      <c r="O12" s="9">
-        <v>1100</v>
-      </c>
-      <c r="P12" s="14">
-        <v>1200</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>1500</v>
-      </c>
-      <c r="R12" s="13">
-        <v>1800</v>
-      </c>
-      <c r="S12" s="13">
-        <v>2100</v>
-      </c>
-      <c r="T12" s="9">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13" s="12">
         <f>(LN(E$2/5)*100+E$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1066.2196820661973</v>
+        <v>1103.7196820661973</v>
       </c>
       <c r="F13" s="12">
         <f>(LN(F$2/5)*100+F$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1311.663836234181</v>
+        <v>1386.663836234181</v>
       </c>
       <c r="G13" s="12">
         <f>(LN(G$2/5)*100+G$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1470.8033686666301</v>
+        <v>1583.3033686666301</v>
       </c>
       <c r="H13" s="12">
         <f>(LN(H$2/5)*100+H$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1594.6079904021644</v>
+        <v>1744.6079904021644</v>
       </c>
       <c r="I13" s="12">
         <f>(LN(I$2/5)*100+I$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1699.0510557964276</v>
+        <v>1886.5510557964276</v>
       </c>
       <c r="J13" s="12">
         <f>(LN(J$2/5)*100+J$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1791.2475228346138</v>
+        <v>2016.2475228346138</v>
       </c>
       <c r="K13" s="12">
         <f>(LN(K$2/5)*100+K$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1874.9927267827914</v>
+        <v>2137.4927267827916</v>
       </c>
       <c r="L13" s="12">
         <f>(LN(L$2/5)*100+L$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>1952.5521445701481</v>
+        <v>2252.5521445701479</v>
       </c>
       <c r="M13" s="12">
         <f>(LN(M$2/5)*100+M$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2025.3870552670633</v>
+        <v>2362.8870552670633</v>
       </c>
       <c r="N13" s="12">
         <f>(LN(N$2/5)*100+N$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2094.4952099644111</v>
+        <v>2469.4952099644111</v>
       </c>
       <c r="O13" s="12">
         <f>(LN(O$2/5)*100+O$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2160.5882639057086</v>
+        <v>2573.0882639057086</v>
       </c>
       <c r="P13" s="12">
         <f>(LN(P$2/5)*100+P$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2224.1916770025973</v>
+        <v>2674.1916770025973</v>
       </c>
       <c r="Q13" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2403.6347423968605</v>
+        <v>2966.1347423968605</v>
       </c>
       <c r="R13" s="12">
         <f>(LN(R$2/5)*100+R$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2570.8312094350467</v>
+        <v>3245.8312094350463</v>
       </c>
       <c r="S13" s="12">
         <f>(LN(S$2/5)*100+S$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2729.5764133832245</v>
+        <v>3517.0764133832245</v>
       </c>
       <c r="T13" s="12">
         <f>(LN(T$2/5)*100+T$2/$D13)*$C13+(100+($C13*10))</f>
-        <v>2882.1358311705808</v>
+        <v>3782.1358311705808</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="12">
         <f>(LN(E$2/5)*100+E$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>1103.7196820661973</v>
+        <v>1241.8396290772303</v>
       </c>
       <c r="F14" s="12">
         <f>(LN(F$2/5)*100+F$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>1386.663836234181</v>
+        <v>1542.7744756065442</v>
       </c>
       <c r="G14" s="12">
         <f>(LN(G$2/5)*100+G$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>1583.3033686666301</v>
+        <v>1743.0205967777351</v>
       </c>
       <c r="H14" s="12">
         <f>(LN(H$2/5)*100+H$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>1744.6079904021644</v>
+        <v>1902.0426554691917</v>
       </c>
       <c r="I14" s="12">
         <f>(LN(I$2/5)*100+I$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>1886.5510557964276</v>
+        <v>2038.4762317624989</v>
       </c>
       <c r="J14" s="12">
         <f>(LN(J$2/5)*100+J$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2016.2475228346138</v>
+        <v>2160.6221099737159</v>
       </c>
       <c r="K14" s="12">
         <f>(LN(K$2/5)*100+K$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2137.4927267827916</v>
+        <v>2272.9081812465897</v>
       </c>
       <c r="L14" s="12">
         <f>(LN(L$2/5)*100+L$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2252.5521445701479</v>
+        <v>2377.9775019985059</v>
       </c>
       <c r="M14" s="12">
         <f>(LN(M$2/5)*100+M$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2362.8870552670633</v>
+        <v>2477.5348978115735</v>
       </c>
       <c r="N14" s="12">
         <f>(LN(N$2/5)*100+N$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2469.4952099644111</v>
+        <v>2572.7444116251459</v>
       </c>
       <c r="O14" s="12">
         <f>(LN(O$2/5)*100+O$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2573.0882639057086</v>
+        <v>2664.4363078899937</v>
       </c>
       <c r="P14" s="12">
         <f>(LN(P$2/5)*100+P$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2674.1916770025973</v>
+        <v>2753.2236231696966</v>
       </c>
       <c r="Q14" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>2966.1347423968605</v>
+        <v>3006.3238661296705</v>
       </c>
       <c r="R14" s="12">
         <f>(LN(R$2/5)*100+R$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>3245.8312094350463</v>
+        <v>3245.1364110075542</v>
       </c>
       <c r="S14" s="12">
         <f>(LN(S$2/5)*100+S$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>3517.0764133832245</v>
+        <v>3474.0891489470951</v>
       </c>
       <c r="T14" s="12">
         <f>(LN(T$2/5)*100+T$2/$D14)*$C14+(100+($C14*10))</f>
-        <v>3782.1358311705808</v>
+        <v>3695.8251363656777</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
       </c>
       <c r="E15" s="12">
         <f>(LN(E$2/5)*100+E$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>1241.8396290772303</v>
+        <v>1111.343671468404</v>
       </c>
       <c r="F15" s="12">
         <f>(LN(F$2/5)*100+F$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>1542.7744756065442</v>
+        <v>1377.8859641086535</v>
       </c>
       <c r="G15" s="12">
         <f>(LN(G$2/5)*100+G$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>1743.0205967777351</v>
+        <v>1555.2468142888511</v>
       </c>
       <c r="H15" s="12">
         <f>(LN(H$2/5)*100+H$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>1902.0426554691917</v>
+        <v>1696.0949234155698</v>
       </c>
       <c r="I15" s="12">
         <f>(LN(I$2/5)*100+I$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2038.4762317624989</v>
+        <v>1816.9360909896418</v>
       </c>
       <c r="J15" s="12">
         <f>(LN(J$2/5)*100+J$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2160.6221099737159</v>
+        <v>1925.1224402624343</v>
       </c>
       <c r="K15" s="12">
         <f>(LN(K$2/5)*100+K$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2272.9081812465897</v>
+        <v>2024.575817675551</v>
       </c>
       <c r="L15" s="12">
         <f>(LN(L$2/5)*100+L$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2377.9775019985059</v>
+        <v>2117.6372160558194</v>
       </c>
       <c r="M15" s="12">
         <f>(LN(M$2/5)*100+M$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2477.5348978115735</v>
+        <v>2205.8166237759651</v>
       </c>
       <c r="N15" s="12">
         <f>(LN(N$2/5)*100+N$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2572.7444116251459</v>
+        <v>2290.1450502965581</v>
       </c>
       <c r="O15" s="12">
         <f>(LN(O$2/5)*100+O$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2664.4363078899937</v>
+        <v>2371.3578727025656</v>
       </c>
       <c r="P15" s="12">
         <f>(LN(P$2/5)*100+P$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>2753.2236231696966</v>
+        <v>2449.9980662360172</v>
       </c>
       <c r="Q15" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>3006.3238661296705</v>
+        <v>2674.1725671434224</v>
       </c>
       <c r="R15" s="12">
         <f>(LN(R$2/5)*100+R$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>3245.1364110075542</v>
+        <v>2885.6922497495484</v>
       </c>
       <c r="S15" s="12">
         <f>(LN(S$2/5)*100+S$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>3474.0891489470951</v>
+        <v>3088.4789604959983</v>
       </c>
       <c r="T15" s="12">
         <f>(LN(T$2/5)*100+T$2/$D15)*$C15+(100+($C15*10))</f>
-        <v>3695.8251363656777</v>
+        <v>3284.8736922096004</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="12" t="e">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="12">
         <f>(LN(E$2/5)*100+E$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
+        <v>1452.5786237073105</v>
+      </c>
+      <c r="F16" s="12">
         <f>(LN(F$2/5)*100+F$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
+        <v>1844.1232102170031</v>
+      </c>
+      <c r="G16" s="12">
         <f>(LN(G$2/5)*100+G$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="12" t="e">
+        <v>2120.594967745983</v>
+      </c>
+      <c r="H16" s="12">
         <f>(LN(H$2/5)*100+H$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="12" t="e">
+        <v>2349.9535110124098</v>
+      </c>
+      <c r="I16" s="12">
         <f>(LN(I$2/5)*100+I$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="12" t="e">
+        <v>2553.4966458238082</v>
+      </c>
+      <c r="J16" s="12">
         <f>(LN(J$2/5)*100+J$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="12" t="e">
+        <v>2740.7109828271041</v>
+      </c>
+      <c r="K16" s="12">
         <f>(LN(K$2/5)*100+K$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="12" t="e">
+        <v>2916.6569690437218</v>
+      </c>
+      <c r="L16" s="12">
         <f>(LN(L$2/5)*100+L$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="12" t="e">
+        <v>3084.3552403792451</v>
+      </c>
+      <c r="M16" s="12">
         <f>(LN(M$2/5)*100+M$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="12" t="e">
+        <v>3245.7541689275131</v>
+      </c>
+      <c r="N16" s="12">
         <f>(LN(N$2/5)*100+N$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="12" t="e">
+        <v>3402.1840894763573</v>
+      </c>
+      <c r="O16" s="12">
         <f>(LN(O$2/5)*100+O$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="12" t="e">
+        <v>3554.5938756838023</v>
+      </c>
+      <c r="P16" s="12">
         <f>(LN(P$2/5)*100+P$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="12" t="e">
+        <v>3703.6841407653674</v>
+      </c>
+      <c r="Q16" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="12" t="e">
+        <v>4135.7987041481947</v>
+      </c>
+      <c r="R16" s="12">
         <f>(LN(R$2/5)*100+R$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="12" t="e">
+        <v>4551.5844697229195</v>
+      </c>
+      <c r="S16" s="12">
         <f>(LN(S$2/5)*100+S$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="12" t="e">
+        <v>4956.1018845109656</v>
+      </c>
+      <c r="T16" s="12">
         <f>(LN(T$2/5)*100+T$2/$D16)*$C16+(100+($C16*10))</f>
-        <v>#DIV/0!</v>
+        <v>5352.3715844179169</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="12">
         <f>(LN(E$2/5)*100+E$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>1111.343671468404</v>
+        <v>1253.5062957438968</v>
       </c>
       <c r="F17" s="12">
         <f>(LN(F$2/5)*100+F$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>1377.8859641086535</v>
+        <v>1566.1078089398777</v>
       </c>
       <c r="G17" s="12">
         <f>(LN(G$2/5)*100+G$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>1555.2468142888511</v>
+        <v>1778.0205967777351</v>
       </c>
       <c r="H17" s="12">
         <f>(LN(H$2/5)*100+H$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>1696.0949234155698</v>
+        <v>1948.7093221358584</v>
       </c>
       <c r="I17" s="12">
         <f>(LN(I$2/5)*100+I$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>1816.9360909896418</v>
+        <v>2096.8095650958321</v>
       </c>
       <c r="J17" s="12">
         <f>(LN(J$2/5)*100+J$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>1925.1224402624343</v>
+        <v>2230.6221099737159</v>
       </c>
       <c r="K17" s="12">
         <f>(LN(K$2/5)*100+K$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2024.575817675551</v>
+        <v>2354.5748479132567</v>
       </c>
       <c r="L17" s="12">
         <f>(LN(L$2/5)*100+L$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2117.6372160558194</v>
+        <v>2471.3108353318394</v>
       </c>
       <c r="M17" s="12">
         <f>(LN(M$2/5)*100+M$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2205.8166237759651</v>
+        <v>2582.5348978115735</v>
       </c>
       <c r="N17" s="12">
         <f>(LN(N$2/5)*100+N$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2290.1450502965581</v>
+        <v>2689.4110782918128</v>
       </c>
       <c r="O17" s="12">
         <f>(LN(O$2/5)*100+O$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2371.3578727025656</v>
+        <v>2792.7696412233267</v>
       </c>
       <c r="P17" s="12">
         <f>(LN(P$2/5)*100+P$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2449.9980662360172</v>
+        <v>2893.2236231696966</v>
       </c>
       <c r="Q17" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2674.1725671434224</v>
+        <v>3181.3238661296705</v>
       </c>
       <c r="R17" s="12">
         <f>(LN(R$2/5)*100+R$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>2885.6922497495484</v>
+        <v>3455.1364110075542</v>
       </c>
       <c r="S17" s="12">
         <f>(LN(S$2/5)*100+S$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>3088.4789604959983</v>
+        <v>3719.0891489470951</v>
       </c>
       <c r="T17" s="12">
         <f>(LN(T$2/5)*100+T$2/$D17)*$C17+(100+($C17*10))</f>
-        <v>3284.8736922096004</v>
+        <v>3975.8251363656777</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D18" s="1">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12">
         <f>(LN(E$2/5)*100+E$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>1452.5786237073105</v>
+        <v>1452.7075548926762</v>
       </c>
       <c r="F18" s="12">
         <f>(LN(F$2/5)*100+F$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>1844.1232102170031</v>
+        <v>1796.3293707278533</v>
       </c>
       <c r="G18" s="12">
         <f>(LN(G$2/5)*100+G$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>2120.594967745983</v>
+        <v>2019.1247161332822</v>
       </c>
       <c r="H18" s="12">
         <f>(LN(H$2/5)*100+H$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>2349.9535110124098</v>
+        <v>2192.4511865630302</v>
       </c>
       <c r="I18" s="12">
         <f>(LN(I$2/5)*100+I$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>2553.4966458238082</v>
+        <v>2338.6714781149985</v>
       </c>
       <c r="J18" s="12">
         <f>(LN(J$2/5)*100+J$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>2740.7109828271041</v>
+        <v>2467.7465319684593</v>
       </c>
       <c r="K18" s="12">
         <f>(LN(K$2/5)*100+K$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>2916.6569690437218</v>
+        <v>2584.989817495908</v>
       </c>
       <c r="L18" s="12">
         <f>(LN(L$2/5)*100+L$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>3084.3552403792451</v>
+        <v>2693.5730023982073</v>
       </c>
       <c r="M18" s="12">
         <f>(LN(M$2/5)*100+M$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>3245.7541689275131</v>
+        <v>2795.5418773738884</v>
       </c>
       <c r="N18" s="12">
         <f>(LN(N$2/5)*100+N$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>3402.1840894763573</v>
+        <v>2892.2932939501757</v>
       </c>
       <c r="O18" s="12">
         <f>(LN(O$2/5)*100+O$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>3554.5938756838023</v>
+        <v>2984.8235694679925</v>
       </c>
       <c r="P18" s="12">
         <f>(LN(P$2/5)*100+P$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>3703.6841407653674</v>
+        <v>3073.8683478036364</v>
       </c>
       <c r="Q18" s="12">
         <f>(LN(Q$2/5)*100+Q$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>4135.7987041481947</v>
+        <v>3325.0886393556048</v>
       </c>
       <c r="R18" s="12">
         <f>(LN(R$2/5)*100+R$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>4551.5844697229195</v>
+        <v>3559.1636932090655</v>
       </c>
       <c r="S18" s="12">
         <f>(LN(S$2/5)*100+S$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>4956.1018845109656</v>
+        <v>3781.4069787365142</v>
       </c>
       <c r="T18" s="12">
         <f>(LN(T$2/5)*100+T$2/$D18)*$C18+(100+($C18*10))</f>
-        <v>5352.3715844179169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="12">
-        <f>(LN(E$2/5)*100+E$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>1253.5062957438968</v>
-      </c>
-      <c r="F19" s="12">
-        <f>(LN(F$2/5)*100+F$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>1566.1078089398777</v>
-      </c>
-      <c r="G19" s="12">
-        <f>(LN(G$2/5)*100+G$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>1778.0205967777351</v>
-      </c>
-      <c r="H19" s="12">
-        <f>(LN(H$2/5)*100+H$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>1948.7093221358584</v>
-      </c>
-      <c r="I19" s="12">
-        <f>(LN(I$2/5)*100+I$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2096.8095650958321</v>
-      </c>
-      <c r="J19" s="12">
-        <f>(LN(J$2/5)*100+J$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2230.6221099737159</v>
-      </c>
-      <c r="K19" s="12">
-        <f>(LN(K$2/5)*100+K$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2354.5748479132567</v>
-      </c>
-      <c r="L19" s="12">
-        <f>(LN(L$2/5)*100+L$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2471.3108353318394</v>
-      </c>
-      <c r="M19" s="12">
-        <f>(LN(M$2/5)*100+M$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2582.5348978115735</v>
-      </c>
-      <c r="N19" s="12">
-        <f>(LN(N$2/5)*100+N$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2689.4110782918128</v>
-      </c>
-      <c r="O19" s="12">
-        <f>(LN(O$2/5)*100+O$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2792.7696412233267</v>
-      </c>
-      <c r="P19" s="12">
-        <f>(LN(P$2/5)*100+P$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>2893.2236231696966</v>
-      </c>
-      <c r="Q19" s="12">
-        <f>(LN(Q$2/5)*100+Q$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>3181.3238661296705</v>
-      </c>
-      <c r="R19" s="12">
-        <f>(LN(R$2/5)*100+R$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>3455.1364110075542</v>
-      </c>
-      <c r="S19" s="12">
-        <f>(LN(S$2/5)*100+S$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>3719.0891489470951</v>
-      </c>
-      <c r="T19" s="12">
-        <f>(LN(T$2/5)*100+T$2/$D19)*$C19+(100+($C19*10))</f>
-        <v>3975.8251363656777</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="12">
-        <f>(LN(E$2/5)*100+E$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>1452.7075548926762</v>
-      </c>
-      <c r="F20" s="12">
-        <f>(LN(F$2/5)*100+F$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>1796.3293707278533</v>
-      </c>
-      <c r="G20" s="12">
-        <f>(LN(G$2/5)*100+G$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2019.1247161332822</v>
-      </c>
-      <c r="H20" s="12">
-        <f>(LN(H$2/5)*100+H$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2192.4511865630302</v>
-      </c>
-      <c r="I20" s="12">
-        <f>(LN(I$2/5)*100+I$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2338.6714781149985</v>
-      </c>
-      <c r="J20" s="12">
-        <f>(LN(J$2/5)*100+J$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2467.7465319684593</v>
-      </c>
-      <c r="K20" s="12">
-        <f>(LN(K$2/5)*100+K$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2584.989817495908</v>
-      </c>
-      <c r="L20" s="12">
-        <f>(LN(L$2/5)*100+L$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2693.5730023982073</v>
-      </c>
-      <c r="M20" s="12">
-        <f>(LN(M$2/5)*100+M$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2795.5418773738884</v>
-      </c>
-      <c r="N20" s="12">
-        <f>(LN(N$2/5)*100+N$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2892.2932939501757</v>
-      </c>
-      <c r="O20" s="12">
-        <f>(LN(O$2/5)*100+O$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>2984.8235694679925</v>
-      </c>
-      <c r="P20" s="12">
-        <f>(LN(P$2/5)*100+P$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>3073.8683478036364</v>
-      </c>
-      <c r="Q20" s="12">
-        <f>(LN(Q$2/5)*100+Q$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>3325.0886393556048</v>
-      </c>
-      <c r="R20" s="12">
-        <f>(LN(R$2/5)*100+R$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>3559.1636932090655</v>
-      </c>
-      <c r="S20" s="12">
-        <f>(LN(S$2/5)*100+S$2/$D20)*$C20+(100+($C20*10))</f>
-        <v>3781.4069787365142</v>
-      </c>
-      <c r="T20" s="12">
-        <f>(LN(T$2/5)*100+T$2/$D20)*$C20+(100+($C20*10))</f>
         <v>3994.9901636388136</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:T10">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E3:T9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9059,8 +8669,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:T20">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E12:T18">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
